--- a/cellular_automaton/mitten_cellular-automaton.xlsx
+++ b/cellular_automaton/mitten_cellular-automaton.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spenceregan/Repos/Kangerbae/coded-mittens/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spenceregan/Repos/Kangerbae/coded-mittens/cellular_automaton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{56BFDC61-BA0E-7A41-8879-FA2E6ECAF602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D114830E-948D-DB41-9DC7-20C6383278FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mitten_rule-30" sheetId="1" r:id="rId1"/>
     <sheet name="CSV Output" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="rule">'mitten_rule-30'!$AB$3</definedName>
-    <definedName name="rulein0">'mitten_rule-30'!$X$51:$Z$51</definedName>
-    <definedName name="ruleout0">'mitten_rule-30'!$Y$52</definedName>
+    <definedName name="rule">'mitten_rule-30'!$AA$3</definedName>
+    <definedName name="rulein0">'mitten_rule-30'!$W$51:$Y$51</definedName>
+    <definedName name="ruleout0">'mitten_rule-30'!$X$52</definedName>
     <definedName name="ruleout1">'mitten_rule-30'!$U$52</definedName>
     <definedName name="ruleout2">'mitten_rule-30'!$R$52</definedName>
     <definedName name="ruleout3">'mitten_rule-30'!$O$52</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="9">
   <si>
     <t>None</t>
   </si>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -583,9 +583,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1009,22 +1008,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" hidden="1" customWidth="1"/>
-    <col min="2" max="22" width="3.5" customWidth="1"/>
-    <col min="23" max="23" width="3.5" hidden="1" customWidth="1"/>
-    <col min="24" max="26" width="3.5" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="25" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1088,17 +1085,17 @@
       <c r="V1">
         <v>21</v>
       </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
       <c r="X1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1">
-        <v>23</v>
-      </c>
-      <c r="Z1">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1162,20 +1159,20 @@
       <c r="V2" t="s">
         <v>0</v>
       </c>
+      <c r="W2" t="s">
+        <v>4</v>
+      </c>
       <c r="X2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AA2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +1206,7 @@
       </c>
       <c r="L3" t="str" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L3,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M3" t="str" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M3,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1242,20 +1239,20 @@
       <c r="V3" t="s">
         <v>0</v>
       </c>
+      <c r="W3" t="s">
+        <v>5</v>
+      </c>
       <c r="X3" t="s">
         <v>5</v>
       </c>
       <c r="Y3" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB3">
-        <v>231</v>
+      <c r="AA3">
+        <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +1287,7 @@
       </c>
       <c r="L4" t="str" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L4,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M4" t="str" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M4,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1324,17 +1321,17 @@
       <c r="V4" t="s">
         <v>0</v>
       </c>
+      <c r="W4" t="s">
+        <v>4</v>
+      </c>
       <c r="X4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="5" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1362,7 +1359,7 @@
       </c>
       <c r="J5" t="str" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J5,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K5" t="str" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K5,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1370,7 +1367,7 @@
       </c>
       <c r="L5" t="str" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L5,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M5" t="str" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M5,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1378,7 +1375,7 @@
       </c>
       <c r="N5" t="str" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N5,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O5,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1405,17 +1402,17 @@
       <c r="V5" t="s">
         <v>0</v>
       </c>
+      <c r="W5" t="s">
+        <v>4</v>
+      </c>
       <c r="X5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y5" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="6" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -1444,23 +1441,23 @@
       </c>
       <c r="J6" t="str" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J6,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K6" t="str" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K6,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L6" t="str" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L6,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M6" t="str" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M6,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N6,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O6,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1488,17 +1485,17 @@
       <c r="V6" t="s">
         <v>0</v>
       </c>
+      <c r="W6" t="s">
+        <v>5</v>
+      </c>
       <c r="X6" t="s">
         <v>5</v>
       </c>
       <c r="Y6" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="7" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -1520,7 +1517,7 @@
       </c>
       <c r="H7" t="str" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H7,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I7" t="str" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I7,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1532,15 +1529,15 @@
       </c>
       <c r="K7" t="str" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K7,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L7" t="str" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L7,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M7" t="str" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M7,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N7" t="str" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N7,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1552,7 +1549,7 @@
       </c>
       <c r="P7" t="str" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P7,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q7" t="str" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q7,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1573,17 +1570,17 @@
       <c r="V7" t="s">
         <v>0</v>
       </c>
+      <c r="W7" t="s">
+        <v>4</v>
+      </c>
       <c r="X7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="s">
         <v>4</v>
       </c>
-      <c r="Y7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="8" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -1606,7 +1603,7 @@
       </c>
       <c r="H8" t="str" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H8,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I8" t="str" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I8,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1622,7 +1619,7 @@
       </c>
       <c r="L8" t="str" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L8,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M8" t="str" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M8,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1638,7 +1635,7 @@
       </c>
       <c r="P8" t="str" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P8,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q8" t="str" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q8,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1660,17 +1657,17 @@
       <c r="V8" t="s">
         <v>0</v>
       </c>
+      <c r="W8" t="s">
+        <v>4</v>
+      </c>
       <c r="X8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y8" t="s">
         <v>4</v>
       </c>
-      <c r="Y8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="9" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1686,7 +1683,7 @@
       </c>
       <c r="F9" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F9,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G9" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G9,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1694,7 +1691,7 @@
       </c>
       <c r="H9" t="str" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H9,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I9" t="str" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I9,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1702,7 +1699,7 @@
       </c>
       <c r="J9" t="str" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J9,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K9" t="str" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K9,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1710,7 +1707,7 @@
       </c>
       <c r="L9" t="str" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L9,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M9" t="str" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M9,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1718,7 +1715,7 @@
       </c>
       <c r="N9" t="str" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N9,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O9,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1726,7 +1723,7 @@
       </c>
       <c r="P9" t="str" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P9,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q9" t="str" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q9,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1734,7 +1731,7 @@
       </c>
       <c r="R9" t="str" cm="1">
         <f t="array" aca="1" ref="R9" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R9,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S9" t="str" cm="1">
         <f t="array" aca="1" ref="S9" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S9,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1749,21 +1746,18 @@
       <c r="V9" t="s">
         <v>0</v>
       </c>
+      <c r="W9" t="s">
+        <v>5</v>
+      </c>
       <c r="X9" t="s">
         <v>5</v>
       </c>
       <c r="Y9" t="s">
         <v>5</v>
       </c>
-      <c r="Z9" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="10" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="str">
-        <f>V10</f>
-        <v>SSK</v>
-      </c>
+    <row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1780,55 +1774,55 @@
       </c>
       <c r="F10" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F10,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G10" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G10,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H10" t="str" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H10,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I10" t="str" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I10,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J10" t="str" cm="1">
         <f t="array" aca="1" ref="J10" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J10,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K10" t="str" cm="1">
         <f t="array" aca="1" ref="K10" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K10,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L10" t="str" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L10,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M10" t="str" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M10,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N10,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O10,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P10" t="str" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P10,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q10" t="str" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q10,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R10" t="str" cm="1">
         <f t="array" aca="1" ref="R10" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R10,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S10" t="str" cm="1">
         <f t="array" aca="1" ref="S10" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S10,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1844,28 +1838,21 @@
       <c r="V10" t="s">
         <v>3</v>
       </c>
-      <c r="W10" t="str">
-        <f>B10</f>
-        <v>K2TOG</v>
+      <c r="W10" t="s">
+        <v>4</v>
       </c>
       <c r="X10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" t="s">
         <v>4</v>
       </c>
-      <c r="Y10" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="11" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="str">
-        <f t="shared" ref="A11:A47" ca="1" si="0">V11</f>
-        <v>C1</v>
-      </c>
+    <row r="11" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
       <c r="B11" t="str" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B11,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C11" t="str" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C11,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1873,7 +1860,7 @@
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D11,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E11" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E11,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1885,47 +1872,47 @@
       </c>
       <c r="G11" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G11,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H11" t="str" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H11,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I11" t="str" cm="1">
         <f t="array" aca="1" ref="I11" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I11,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J11" t="str" cm="1">
         <f t="array" aca="1" ref="J11" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J11,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K11" t="str" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K11,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L11" t="str" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L11,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M11" t="str" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M11,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N11" t="str" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N11,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O11,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P11" t="str" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P11,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q11" t="str" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q11,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R11" t="str" cm="1">
         <f t="array" aca="1" ref="R11" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R11,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1937,7 +1924,7 @@
       </c>
       <c r="T11" t="str" cm="1">
         <f t="array" aca="1" ref="T11" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T11,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U11" t="str" cm="1">
         <f t="array" aca="1" ref="U11" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U11,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1945,38 +1932,31 @@
       </c>
       <c r="V11" t="str" cm="1">
         <f t="array" aca="1" ref="V11" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V11,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
-      </c>
-      <c r="W11" t="str">
-        <f t="shared" ref="W11:W47" ca="1" si="1">B11</f>
-        <v>C1</v>
+        <v>MC</v>
+      </c>
+      <c r="W11" t="s">
+        <v>4</v>
       </c>
       <c r="X11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y11" t="s">
         <v>4</v>
       </c>
-      <c r="Y11" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="12" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="12" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
       <c r="B12" t="str" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B12,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
       </c>
       <c r="C12" t="str" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C12,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D12,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E12,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -1992,39 +1972,39 @@
       </c>
       <c r="H12" t="str" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H12,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I12" t="str" cm="1">
         <f t="array" aca="1" ref="I12" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I12,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J12" t="str" cm="1">
         <f t="array" aca="1" ref="J12" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J12,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K12" t="str" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K12,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L12" t="str" cm="1">
         <f t="array" aca="1" ref="L12" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L12,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M12" t="str" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M12,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N12" t="str" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N12,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O12" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O12,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P12" t="str" cm="1">
         <f t="array" aca="1" ref="P12" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P12,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q12" t="str" cm="1">
         <f t="array" aca="1" ref="Q12" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q12,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2040,19 +2020,18 @@
       </c>
       <c r="T12" t="str" cm="1">
         <f t="array" aca="1" ref="T12" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T12,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U12" t="str" cm="1">
         <f t="array" aca="1" ref="U12" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U12,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V12" t="str" cm="1">
         <f t="array" aca="1" ref="V12" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V12,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
       </c>
-      <c r="W12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+      <c r="W12" t="s">
+        <v>5</v>
       </c>
       <c r="X12" t="s">
         <v>5</v>
@@ -2060,18 +2039,12 @@
       <c r="Y12" t="s">
         <v>5</v>
       </c>
-      <c r="Z12" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="13" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="13" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
       <c r="B13" t="str" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B13,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C13" t="str" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C13,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2087,7 +2060,7 @@
       </c>
       <c r="F13" t="str" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F13,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G13" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G13,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2099,31 +2072,31 @@
       </c>
       <c r="I13" t="str" cm="1">
         <f t="array" aca="1" ref="I13" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I13,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J13" t="str" cm="1">
         <f t="array" aca="1" ref="J13" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J13,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K13" t="str" cm="1">
         <f t="array" aca="1" ref="K13" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K13,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L13" t="str" cm="1">
         <f t="array" aca="1" ref="L13" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L13,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M13" t="str" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M13,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N13" t="str" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N13,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O13" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O13,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P13" t="str" cm="1">
         <f t="array" aca="1" ref="P13" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P13,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2135,7 +2108,7 @@
       </c>
       <c r="R13" t="str" cm="1">
         <f t="array" aca="1" ref="R13" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R13,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S13" t="str" cm="1">
         <f t="array" aca="1" ref="S13" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S13,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2151,27 +2124,20 @@
       </c>
       <c r="V13" t="str" cm="1">
         <f t="array" aca="1" ref="V13" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V13,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
-      </c>
-      <c r="W13" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+        <v>MC</v>
+      </c>
+      <c r="W13" t="s">
+        <v>4</v>
       </c>
       <c r="X13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y13" t="s">
         <v>4</v>
       </c>
-      <c r="Y13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="14" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="14" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
       <c r="B14" t="str" cm="1">
         <f t="array" aca="1" ref="B14" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B14,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
@@ -2182,7 +2148,7 @@
       </c>
       <c r="D14" t="str" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D14,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E14" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E14,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2190,7 +2156,7 @@
       </c>
       <c r="F14" t="str" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F14,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G14" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G14,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2206,23 +2172,23 @@
       </c>
       <c r="J14" t="str" cm="1">
         <f t="array" aca="1" ref="J14" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J14,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K14" t="str" cm="1">
         <f t="array" aca="1" ref="K14" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K14,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L14" t="str" cm="1">
         <f t="array" aca="1" ref="L14" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L14,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M14" t="str" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M14,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N14" t="str" cm="1">
         <f t="array" aca="1" ref="N14" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N14,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O14" t="str" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O14,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2238,7 +2204,7 @@
       </c>
       <c r="R14" t="str" cm="1">
         <f t="array" aca="1" ref="R14" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R14,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S14" t="str" cm="1">
         <f t="array" aca="1" ref="S14" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S14,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2246,7 +2212,7 @@
       </c>
       <c r="T14" t="str" cm="1">
         <f t="array" aca="1" ref="T14" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T14,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U14" t="str" cm="1">
         <f t="array" aca="1" ref="U14" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U14,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2256,25 +2222,18 @@
         <f t="array" aca="1" ref="V14" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V14,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
       </c>
-      <c r="W14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+      <c r="W14" t="s">
+        <v>4</v>
       </c>
       <c r="X14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="15" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>MC</v>
-      </c>
+    <row r="15" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
       <c r="B15" t="str" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B15,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
@@ -2285,15 +2244,15 @@
       </c>
       <c r="D15" t="str" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D15,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E15" t="str" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E15,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F15" t="str" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F15,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G15" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G15,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2301,7 +2260,7 @@
       </c>
       <c r="H15" t="str" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H15,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I15" t="str" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I15,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2313,15 +2272,15 @@
       </c>
       <c r="K15" t="str" cm="1">
         <f t="array" aca="1" ref="K15" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K15,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L15" t="str" cm="1">
         <f t="array" aca="1" ref="L15" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L15,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M15" t="str" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M15,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N15" t="str" cm="1">
         <f t="array" aca="1" ref="N15" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N15,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2333,7 +2292,7 @@
       </c>
       <c r="P15" t="str" cm="1">
         <f t="array" aca="1" ref="P15" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P15,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q15" t="str" cm="1">
         <f t="array" aca="1" ref="Q15" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q15,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2341,15 +2300,15 @@
       </c>
       <c r="R15" t="str" cm="1">
         <f t="array" aca="1" ref="R15" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R15,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S15" t="str" cm="1">
         <f t="array" aca="1" ref="S15" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S15,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T15" t="str" cm="1">
         <f t="array" aca="1" ref="T15" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T15,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U15" t="str" cm="1">
         <f t="array" aca="1" ref="U15" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U15,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2359,9 +2318,8 @@
         <f t="array" aca="1" ref="V15" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V15,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
       </c>
-      <c r="W15" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>MC</v>
+      <c r="W15" t="s">
+        <v>5</v>
       </c>
       <c r="X15" t="s">
         <v>5</v>
@@ -2369,15 +2327,9 @@
       <c r="Y15" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="16" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="16" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
       <c r="B16" t="str" cm="1">
         <f t="array" aca="1" ref="B16" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B16,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
@@ -2392,7 +2344,7 @@
       </c>
       <c r="E16" t="str" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E16,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F16" t="str" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F16,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2400,11 +2352,11 @@
       </c>
       <c r="G16" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G16,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H16" t="str" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H16,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I16" t="str" cm="1">
         <f t="array" aca="1" ref="I16" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I16,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2420,7 +2372,7 @@
       </c>
       <c r="L16" t="str" cm="1">
         <f t="array" aca="1" ref="L16" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L16,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M16" t="str" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M16,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2436,11 +2388,11 @@
       </c>
       <c r="P16" t="str" cm="1">
         <f t="array" aca="1" ref="P16" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P16,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q16" t="str" cm="1">
         <f t="array" aca="1" ref="Q16" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q16,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R16" t="str" cm="1">
         <f t="array" aca="1" ref="R16" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R16,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2448,7 +2400,7 @@
       </c>
       <c r="S16" t="str" cm="1">
         <f t="array" aca="1" ref="S16" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S16,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T16" t="str" cm="1">
         <f t="array" aca="1" ref="T16" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T16,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2462,32 +2414,25 @@
         <f t="array" aca="1" ref="V16" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V16,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
       </c>
-      <c r="W16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+      <c r="W16" t="s">
+        <v>4</v>
       </c>
       <c r="X16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y16" t="s">
         <v>4</v>
       </c>
-      <c r="Y16" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="17" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>MC</v>
-      </c>
+    <row r="17" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
       <c r="B17" t="str" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B17,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
       </c>
       <c r="C17" t="str" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C17,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D17" t="str" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D17,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2495,11 +2440,11 @@
       </c>
       <c r="E17" t="str" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E17,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F17" t="str" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F17,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G17" t="str" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G17,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2515,7 +2460,7 @@
       </c>
       <c r="J17" t="str" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J17,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K17" t="str" cm="1">
         <f t="array" aca="1" ref="K17" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K17,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2523,7 +2468,7 @@
       </c>
       <c r="L17" t="str" cm="1">
         <f t="array" aca="1" ref="L17" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L17,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M17" t="str" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M17,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2531,7 +2476,7 @@
       </c>
       <c r="N17" t="str" cm="1">
         <f t="array" aca="1" ref="N17" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N17,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O17" t="str" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O17,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2547,11 +2492,11 @@
       </c>
       <c r="R17" t="str" cm="1">
         <f t="array" aca="1" ref="R17" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R17,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S17" t="str" cm="1">
         <f t="array" aca="1" ref="S17" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S17,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T17" t="str" cm="1">
         <f t="array" aca="1" ref="T17" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T17,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2559,42 +2504,35 @@
       </c>
       <c r="U17" t="str" cm="1">
         <f t="array" aca="1" ref="U17" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U17,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V17" t="str" cm="1">
         <f t="array" aca="1" ref="V17" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V17,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
       </c>
-      <c r="W17" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>MC</v>
+      <c r="W17" t="s">
+        <v>4</v>
       </c>
       <c r="X17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" t="s">
         <v>4</v>
       </c>
-      <c r="Y17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="18" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="18" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
       <c r="B18" t="str" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B18,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C18" t="str" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C18,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D18" t="str" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D18,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E18" t="str" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E18,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2610,7 +2548,7 @@
       </c>
       <c r="H18" t="str" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H18,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I18" t="str" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I18,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2618,23 +2556,23 @@
       </c>
       <c r="J18" t="str" cm="1">
         <f t="array" aca="1" ref="J18" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J18,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K18" t="str" cm="1">
         <f t="array" aca="1" ref="K18" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K18,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L18" t="str" cm="1">
         <f t="array" aca="1" ref="L18" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L18,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M18" t="str" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M18,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N18" t="str" cm="1">
         <f t="array" aca="1" ref="N18" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N18,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O18" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O18,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2642,7 +2580,7 @@
       </c>
       <c r="P18" t="str" cm="1">
         <f t="array" aca="1" ref="P18" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P18,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q18" t="str" cm="1">
         <f t="array" aca="1" ref="Q18" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q18,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2658,19 +2596,18 @@
       </c>
       <c r="T18" t="str" cm="1">
         <f t="array" aca="1" ref="T18" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T18,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U18" t="str" cm="1">
         <f t="array" aca="1" ref="U18" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U18,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V18" t="str" cm="1">
         <f t="array" aca="1" ref="V18" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V18,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
-      </c>
-      <c r="W18" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+        <v>MC</v>
+      </c>
+      <c r="W18" t="s">
+        <v>5</v>
       </c>
       <c r="X18" t="s">
         <v>5</v>
@@ -2678,22 +2615,16 @@
       <c r="Y18" t="s">
         <v>5</v>
       </c>
-      <c r="Z18" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="19" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="19" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
       <c r="B19" t="str" cm="1">
         <f t="array" aca="1" ref="B19" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B19,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C19" t="str" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C19,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D19" t="str" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D19,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2705,7 +2636,7 @@
       </c>
       <c r="F19" t="str" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F19,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G19" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G19,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2713,11 +2644,11 @@
       </c>
       <c r="H19" t="str" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H19,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I19" t="str" cm="1">
         <f t="array" aca="1" ref="I19" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I19,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J19" t="str" cm="1">
         <f t="array" aca="1" ref="J19" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J19,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2725,15 +2656,15 @@
       </c>
       <c r="K19" t="str" cm="1">
         <f t="array" aca="1" ref="K19" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K19,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L19" t="str" cm="1">
         <f t="array" aca="1" ref="L19" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L19,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M19" t="str" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M19,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N19" t="str" cm="1">
         <f t="array" aca="1" ref="N19" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N19,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2741,11 +2672,11 @@
       </c>
       <c r="O19" t="str" cm="1">
         <f t="array" aca="1" ref="O19" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O19,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P19" t="str" cm="1">
         <f t="array" aca="1" ref="P19" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P19,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q19" t="str" cm="1">
         <f t="array" aca="1" ref="Q19" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q19,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2753,7 +2684,7 @@
       </c>
       <c r="R19" t="str" cm="1">
         <f t="array" aca="1" ref="R19" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R19,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S19" t="str" cm="1">
         <f t="array" aca="1" ref="S19" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S19,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2765,34 +2696,27 @@
       </c>
       <c r="U19" t="str" cm="1">
         <f t="array" aca="1" ref="U19" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U19,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V19" t="str" cm="1">
         <f t="array" aca="1" ref="V19" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V19,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
-      </c>
-      <c r="W19" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+        <v>MC</v>
+      </c>
+      <c r="W19" t="s">
+        <v>4</v>
       </c>
       <c r="X19" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y19" t="s">
         <v>4</v>
       </c>
-      <c r="Y19" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="20" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="20" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
       <c r="B20" t="str" cm="1">
         <f t="array" aca="1" ref="B20" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B20,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C20" t="str" cm="1">
         <f t="array" aca="1" ref="C20" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C20,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2808,11 +2732,11 @@
       </c>
       <c r="F20" t="str" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F20,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G20" t="str" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G20,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H20" t="str" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H20,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2824,7 +2748,7 @@
       </c>
       <c r="J20" t="str" cm="1">
         <f t="array" aca="1" ref="J20" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J20,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K20" t="str" cm="1">
         <f t="array" aca="1" ref="K20" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K20,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2832,7 +2756,7 @@
       </c>
       <c r="L20" t="str" cm="1">
         <f t="array" aca="1" ref="L20" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L20,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M20" t="str" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M20,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2840,7 +2764,7 @@
       </c>
       <c r="N20" t="str" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N20,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O20" t="str" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O20,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2852,11 +2776,11 @@
       </c>
       <c r="Q20" t="str" cm="1">
         <f t="array" aca="1" ref="Q20" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q20,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R20" t="str" cm="1">
         <f t="array" aca="1" ref="R20" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R20,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S20" t="str" cm="1">
         <f t="array" aca="1" ref="S20" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S20,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2872,27 +2796,20 @@
       </c>
       <c r="V20" t="str" cm="1">
         <f t="array" aca="1" ref="V20" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V20,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
-      </c>
-      <c r="W20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+        <v>MC</v>
+      </c>
+      <c r="W20" t="s">
+        <v>4</v>
       </c>
       <c r="X20" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" t="s">
         <v>4</v>
       </c>
-      <c r="Y20" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="21" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>MC</v>
-      </c>
+    <row r="21" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
       <c r="B21" t="str" cm="1">
         <f t="array" aca="1" ref="B21" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B21,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
@@ -2903,7 +2820,7 @@
       </c>
       <c r="D21" t="str" cm="1">
         <f t="array" aca="1" ref="D21" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D21,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E21" t="str" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E21,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2927,23 +2844,23 @@
       </c>
       <c r="J21" t="str" cm="1">
         <f t="array" aca="1" ref="J21" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J21,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K21" t="str" cm="1">
         <f t="array" aca="1" ref="K21" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K21,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L21" t="str" cm="1">
         <f t="array" aca="1" ref="L21" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L21,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M21" t="str" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M21,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N21" t="str" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N21,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O21" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O21,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2967,7 +2884,7 @@
       </c>
       <c r="T21" t="str" cm="1">
         <f t="array" aca="1" ref="T21" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T21,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U21" t="str" cm="1">
         <f t="array" aca="1" ref="U21" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U21,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -2977,9 +2894,8 @@
         <f t="array" aca="1" ref="V21" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V21,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
       </c>
-      <c r="W21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>MC</v>
+      <c r="W21" t="s">
+        <v>5</v>
       </c>
       <c r="X21" t="s">
         <v>5</v>
@@ -2987,15 +2903,9 @@
       <c r="Y21" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="22" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="22" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
       <c r="B22" t="str" cm="1">
         <f t="array" aca="1" ref="B22" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B22,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
@@ -3006,7 +2916,7 @@
       </c>
       <c r="D22" t="str" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D22,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E22" t="str" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E22,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3014,15 +2924,15 @@
       </c>
       <c r="F22" t="str" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F22,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G22" t="str" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G22,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H22" t="str" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H22,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I22" t="str" cm="1">
         <f t="array" aca="1" ref="I22" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I22,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3034,15 +2944,15 @@
       </c>
       <c r="K22" t="str" cm="1">
         <f t="array" aca="1" ref="K22" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K22,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L22" t="str" cm="1">
         <f t="array" aca="1" ref="L22" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L22,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M22" t="str" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M22,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N22" t="str" cm="1">
         <f t="array" aca="1" ref="N22" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N22,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3054,15 +2964,15 @@
       </c>
       <c r="P22" t="str" cm="1">
         <f t="array" aca="1" ref="P22" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P22,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q22" t="str" cm="1">
         <f t="array" aca="1" ref="Q22" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q22,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R22" t="str" cm="1">
         <f t="array" aca="1" ref="R22" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R22,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S22" t="str" cm="1">
         <f t="array" aca="1" ref="S22" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S22,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3070,7 +2980,7 @@
       </c>
       <c r="T22" t="str" cm="1">
         <f t="array" aca="1" ref="T22" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T22,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U22" t="str" cm="1">
         <f t="array" aca="1" ref="U22" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U22,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3080,25 +2990,18 @@
         <f t="array" aca="1" ref="V22" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V22,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
       </c>
-      <c r="W22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+      <c r="W22" t="s">
+        <v>4</v>
       </c>
       <c r="X22" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" t="s">
         <v>4</v>
       </c>
-      <c r="Y22" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="23" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>MC</v>
-      </c>
+    <row r="23" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
       <c r="B23" t="str" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B23,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
@@ -3109,11 +3012,11 @@
       </c>
       <c r="D23" t="str" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D23,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E23" t="str" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E23,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F23" t="str" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F23,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3121,7 +3024,7 @@
       </c>
       <c r="G23" t="str" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G23,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H23" t="str" cm="1">
         <f t="array" aca="1" ref="H23" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H23,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3141,7 +3044,7 @@
       </c>
       <c r="L23" t="str" cm="1">
         <f t="array" aca="1" ref="L23" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L23,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M23" t="str" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M23,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3161,7 +3064,7 @@
       </c>
       <c r="Q23" t="str" cm="1">
         <f t="array" aca="1" ref="Q23" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q23,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R23" t="str" cm="1">
         <f t="array" aca="1" ref="R23" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R23,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3169,11 +3072,11 @@
       </c>
       <c r="S23" t="str" cm="1">
         <f t="array" aca="1" ref="S23" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S23,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T23" t="str" cm="1">
         <f t="array" aca="1" ref="T23" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T23,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U23" t="str" cm="1">
         <f t="array" aca="1" ref="U23" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U23,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3183,25 +3086,18 @@
         <f t="array" aca="1" ref="V23" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V23,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
       </c>
-      <c r="W23" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>MC</v>
+      <c r="W23" t="s">
+        <v>4</v>
       </c>
       <c r="X23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" t="s">
         <v>4</v>
       </c>
-      <c r="Y23" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="24" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="24" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
       <c r="B24" t="str" cm="1">
         <f t="array" aca="1" ref="B24" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B24,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
@@ -3220,11 +3116,11 @@
       </c>
       <c r="F24" t="str" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F24,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G24" t="str" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G24,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H24" t="str" cm="1">
         <f t="array" aca="1" ref="H24" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H24,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3232,11 +3128,11 @@
       </c>
       <c r="I24" t="str" cm="1">
         <f t="array" aca="1" ref="I24" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I24,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J24" t="str" cm="1">
         <f t="array" aca="1" ref="J24" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J24,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K24" t="str" cm="1">
         <f t="array" aca="1" ref="K24" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K24,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3244,7 +3140,7 @@
       </c>
       <c r="L24" t="str" cm="1">
         <f t="array" aca="1" ref="L24" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L24,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M24" t="str" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M24,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3252,11 +3148,11 @@
       </c>
       <c r="N24" t="str" cm="1">
         <f t="array" aca="1" ref="N24" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N24,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O24" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O24,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P24" t="str" cm="1">
         <f t="array" aca="1" ref="P24" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P24,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3264,11 +3160,11 @@
       </c>
       <c r="Q24" t="str" cm="1">
         <f t="array" aca="1" ref="Q24" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q24,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R24" t="str" cm="1">
         <f t="array" aca="1" ref="R24" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R24,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S24" t="str" cm="1">
         <f t="array" aca="1" ref="S24" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S24,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3286,9 +3182,8 @@
         <f t="array" aca="1" ref="V24" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V24,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
       </c>
-      <c r="W24" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+      <c r="W24" t="s">
+        <v>5</v>
       </c>
       <c r="X24" t="s">
         <v>5</v>
@@ -3296,26 +3191,20 @@
       <c r="Y24" t="s">
         <v>5</v>
       </c>
-      <c r="Z24" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="25" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>MC</v>
-      </c>
+    <row r="25" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
       <c r="B25" t="str" cm="1">
         <f t="array" aca="1" ref="B25" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B25,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
       </c>
       <c r="C25" t="str" cm="1">
         <f t="array" aca="1" ref="C25" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C25,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D25" t="str" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D25,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E25" t="str" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E25,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3331,7 +3220,7 @@
       </c>
       <c r="H25" t="str" cm="1">
         <f t="array" aca="1" ref="H25" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H25,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I25" t="str" cm="1">
         <f t="array" aca="1" ref="I25" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I25,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3343,15 +3232,15 @@
       </c>
       <c r="K25" t="str" cm="1">
         <f t="array" aca="1" ref="K25" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K25,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L25" t="str" cm="1">
         <f t="array" aca="1" ref="L25" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L25,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M25" t="str" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M25,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N25" t="str" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N25,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3363,7 +3252,7 @@
       </c>
       <c r="P25" t="str" cm="1">
         <f t="array" aca="1" ref="P25" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P25,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q25" t="str" cm="1">
         <f t="array" aca="1" ref="Q25" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q25,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3379,38 +3268,31 @@
       </c>
       <c r="T25" t="str" cm="1">
         <f t="array" aca="1" ref="T25" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T25,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U25" t="str" cm="1">
         <f t="array" aca="1" ref="U25" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U25,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V25" t="str" cm="1">
         <f t="array" aca="1" ref="V25" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V25,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
       </c>
-      <c r="W25" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>MC</v>
+      <c r="W25" t="s">
+        <v>4</v>
       </c>
       <c r="X25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y25" t="s">
         <v>4</v>
       </c>
-      <c r="Y25" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="26" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="26" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
       <c r="B26" t="str" cm="1">
         <f t="array" aca="1" ref="B26" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B26,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C26" t="str" cm="1">
         <f t="array" aca="1" ref="C26" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C26,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3426,7 +3308,7 @@
       </c>
       <c r="F26" t="str" cm="1">
         <f t="array" aca="1" ref="F26" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F26,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G26" t="str" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G26,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3434,7 +3316,7 @@
       </c>
       <c r="H26" t="str" cm="1">
         <f t="array" aca="1" ref="H26" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H26,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I26" t="str" cm="1">
         <f t="array" aca="1" ref="I26" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I26,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3450,7 +3332,7 @@
       </c>
       <c r="L26" t="str" cm="1">
         <f t="array" aca="1" ref="L26" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L26,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M26" t="str" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M26,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3466,7 +3348,7 @@
       </c>
       <c r="P26" t="str" cm="1">
         <f t="array" aca="1" ref="P26" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P26,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q26" t="str" cm="1">
         <f t="array" aca="1" ref="Q26" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q26,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3474,7 +3356,7 @@
       </c>
       <c r="R26" t="str" cm="1">
         <f t="array" aca="1" ref="R26" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R26,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S26" t="str" cm="1">
         <f t="array" aca="1" ref="S26" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S26,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3490,27 +3372,20 @@
       </c>
       <c r="V26" t="str" cm="1">
         <f t="array" aca="1" ref="V26" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V26,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
-      </c>
-      <c r="W26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+        <v>MC</v>
+      </c>
+      <c r="W26" t="s">
+        <v>4</v>
       </c>
       <c r="X26" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" t="s">
         <v>4</v>
       </c>
-      <c r="Y26" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="27" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>MC</v>
-      </c>
+    <row r="27" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
       <c r="B27" t="str" cm="1">
         <f t="array" aca="1" ref="B27" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B27,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
@@ -3521,7 +3396,7 @@
       </c>
       <c r="D27" t="str" cm="1">
         <f t="array" aca="1" ref="D27" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D27,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E27" t="str" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E27,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3529,15 +3404,15 @@
       </c>
       <c r="F27" t="str" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F27,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G27" t="str" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G27,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H27" t="str" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H27,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I27" t="str" cm="1">
         <f t="array" aca="1" ref="I27" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I27,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3545,7 +3420,7 @@
       </c>
       <c r="J27" t="str" cm="1">
         <f t="array" aca="1" ref="J27" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J27,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K27" t="str" cm="1">
         <f t="array" aca="1" ref="K27" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K27,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3553,7 +3428,7 @@
       </c>
       <c r="L27" t="str" cm="1">
         <f t="array" aca="1" ref="L27" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L27,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M27" t="str" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M27,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3561,7 +3436,7 @@
       </c>
       <c r="N27" t="str" cm="1">
         <f t="array" aca="1" ref="N27" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N27,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O27" t="str" cm="1">
         <f t="array" aca="1" ref="O27" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O27,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3569,15 +3444,15 @@
       </c>
       <c r="P27" t="str" cm="1">
         <f t="array" aca="1" ref="P27" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P27,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q27" t="str" cm="1">
         <f t="array" aca="1" ref="Q27" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q27,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R27" t="str" cm="1">
         <f t="array" aca="1" ref="R27" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R27,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S27" t="str" cm="1">
         <f t="array" aca="1" ref="S27" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S27,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3585,7 +3460,7 @@
       </c>
       <c r="T27" t="str" cm="1">
         <f t="array" aca="1" ref="T27" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T27,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U27" t="str" cm="1">
         <f t="array" aca="1" ref="U27" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U27,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3595,9 +3470,8 @@
         <f t="array" aca="1" ref="V27" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V27,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
       </c>
-      <c r="W27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>MC</v>
+      <c r="W27" t="s">
+        <v>5</v>
       </c>
       <c r="X27" t="s">
         <v>5</v>
@@ -3605,15 +3479,9 @@
       <c r="Y27" t="s">
         <v>5</v>
       </c>
-      <c r="Z27" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="28" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="28" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
       <c r="B28" t="str" cm="1">
         <f t="array" aca="1" ref="B28" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B28,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
@@ -3624,11 +3492,11 @@
       </c>
       <c r="D28" t="str" cm="1">
         <f t="array" aca="1" ref="D28" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D28,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E28" t="str" cm="1">
         <f t="array" aca="1" ref="E28" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E28,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F28" t="str" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F28,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3636,7 +3504,7 @@
       </c>
       <c r="G28" t="str" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G28,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H28" t="str" cm="1">
         <f t="array" aca="1" ref="H28" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H28,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3644,31 +3512,31 @@
       </c>
       <c r="I28" t="str" cm="1">
         <f t="array" aca="1" ref="I28" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I28,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J28" t="str" cm="1">
         <f t="array" aca="1" ref="J28" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J28,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K28" t="str" cm="1">
         <f t="array" aca="1" ref="K28" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K28,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L28" t="str" cm="1">
         <f t="array" aca="1" ref="L28" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L28,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M28" t="str" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M28,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N28" t="str" cm="1">
         <f t="array" aca="1" ref="N28" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N28,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O28" t="str" cm="1">
         <f t="array" aca="1" ref="O28" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O28,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P28" t="str" cm="1">
         <f t="array" aca="1" ref="P28" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P28,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3676,7 +3544,7 @@
       </c>
       <c r="Q28" t="str" cm="1">
         <f t="array" aca="1" ref="Q28" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q28,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R28" t="str" cm="1">
         <f t="array" aca="1" ref="R28" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R28,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3684,11 +3552,11 @@
       </c>
       <c r="S28" t="str" cm="1">
         <f t="array" aca="1" ref="S28" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S28,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T28" t="str" cm="1">
         <f t="array" aca="1" ref="T28" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T28,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U28" t="str" cm="1">
         <f t="array" aca="1" ref="U28" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U28,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3698,25 +3566,18 @@
         <f t="array" aca="1" ref="V28" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V28,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
       </c>
-      <c r="W28" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+      <c r="W28" t="s">
+        <v>4</v>
       </c>
       <c r="X28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y28" t="s">
         <v>4</v>
       </c>
-      <c r="Y28" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="29" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>MC</v>
-      </c>
+    <row r="29" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
       <c r="B29" t="str" cm="1">
         <f t="array" aca="1" ref="B29" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B29,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
@@ -3735,15 +3596,15 @@
       </c>
       <c r="F29" t="str" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F29,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G29" t="str" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G29,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H29" t="str" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H29,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I29" t="str" cm="1">
         <f t="array" aca="1" ref="I29" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I29,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3751,23 +3612,23 @@
       </c>
       <c r="J29" t="str" cm="1">
         <f t="array" aca="1" ref="J29" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J29,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K29" t="str" cm="1">
         <f t="array" aca="1" ref="K29" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K29,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L29" t="str" cm="1">
         <f t="array" aca="1" ref="L29" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L29,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M29" t="str" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M29,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N29" t="str" cm="1">
         <f t="array" aca="1" ref="N29" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N29,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O29" t="str" cm="1">
         <f t="array" aca="1" ref="O29" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O29,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3775,15 +3636,15 @@
       </c>
       <c r="P29" t="str" cm="1">
         <f t="array" aca="1" ref="P29" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P29,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q29" t="str" cm="1">
         <f t="array" aca="1" ref="Q29" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q29,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R29" t="str" cm="1">
         <f t="array" aca="1" ref="R29" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R29,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S29" t="str" cm="1">
         <f t="array" aca="1" ref="S29" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S29,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3801,36 +3662,29 @@
         <f t="array" aca="1" ref="V29" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V29,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
       </c>
-      <c r="W29" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>MC</v>
+      <c r="W29" t="s">
+        <v>4</v>
       </c>
       <c r="X29" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="30" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="30" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
       <c r="B30" t="str" cm="1">
         <f t="array" aca="1" ref="B30" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B30,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
       </c>
       <c r="C30" t="str" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C30,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D30" t="str" cm="1">
         <f t="array" aca="1" ref="D30" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D30,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E30" t="str" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E30,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3842,7 +3696,7 @@
       </c>
       <c r="G30" t="str" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G30,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H30" t="str" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H30,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3850,7 +3704,7 @@
       </c>
       <c r="I30" t="str" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I30,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J30" t="str" cm="1">
         <f t="array" aca="1" ref="J30" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J30,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3858,15 +3712,15 @@
       </c>
       <c r="K30" t="str" cm="1">
         <f t="array" aca="1" ref="K30" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K30,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L30" t="str" cm="1">
         <f t="array" aca="1" ref="L30" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L30,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M30" t="str" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M30,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N30" t="str" cm="1">
         <f t="array" aca="1" ref="N30" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N30,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3874,7 +3728,7 @@
       </c>
       <c r="O30" t="str" cm="1">
         <f t="array" aca="1" ref="O30" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O30,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P30" t="str" cm="1">
         <f t="array" aca="1" ref="P30" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P30,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3882,7 +3736,7 @@
       </c>
       <c r="Q30" t="str" cm="1">
         <f t="array" aca="1" ref="Q30" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q30,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R30" t="str" cm="1">
         <f t="array" aca="1" ref="R30" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R30,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3894,19 +3748,18 @@
       </c>
       <c r="T30" t="str" cm="1">
         <f t="array" aca="1" ref="T30" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T30,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U30" t="str" cm="1">
         <f t="array" aca="1" ref="U30" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U30,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V30" t="str" cm="1">
         <f t="array" aca="1" ref="V30" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V30,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
       </c>
-      <c r="W30" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+      <c r="W30" t="s">
+        <v>5</v>
       </c>
       <c r="X30" t="s">
         <v>5</v>
@@ -3914,18 +3767,12 @@
       <c r="Y30" t="s">
         <v>5</v>
       </c>
-      <c r="Z30" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="31" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="31" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
       <c r="B31" t="str" cm="1">
         <f t="array" aca="1" ref="B31" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B31,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C31" t="str" cm="1">
         <f t="array" aca="1" ref="C31" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C31,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3945,19 +3792,19 @@
       </c>
       <c r="G31" t="str" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G31,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H31" t="str" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H31,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I31" t="str" cm="1">
         <f t="array" aca="1" ref="I31" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I31,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J31" t="str" cm="1">
         <f t="array" aca="1" ref="J31" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J31,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K31" t="str" cm="1">
         <f t="array" aca="1" ref="K31" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K31,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3965,7 +3812,7 @@
       </c>
       <c r="L31" t="str" cm="1">
         <f t="array" aca="1" ref="L31" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L31,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M31" t="str" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M31,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -3973,19 +3820,19 @@
       </c>
       <c r="N31" t="str" cm="1">
         <f t="array" aca="1" ref="N31" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N31,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O31" t="str" cm="1">
         <f t="array" aca="1" ref="O31" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O31,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P31" t="str" cm="1">
         <f t="array" aca="1" ref="P31" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P31,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q31" t="str" cm="1">
         <f t="array" aca="1" ref="Q31" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q31,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R31" t="str" cm="1">
         <f t="array" aca="1" ref="R31" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R31,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4005,27 +3852,20 @@
       </c>
       <c r="V31" t="str" cm="1">
         <f t="array" aca="1" ref="V31" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V31,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
-      </c>
-      <c r="W31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+        <v>MC</v>
+      </c>
+      <c r="W31" t="s">
+        <v>4</v>
       </c>
       <c r="X31" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y31" t="s">
         <v>4</v>
       </c>
-      <c r="Y31" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="32" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="32" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
       <c r="B32" t="str" cm="1">
         <f t="array" aca="1" ref="B32" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B32,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
@@ -4036,11 +3876,11 @@
       </c>
       <c r="D32" t="str" cm="1">
         <f t="array" aca="1" ref="D32" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D32,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E32" t="str" cm="1">
         <f t="array" aca="1" ref="E32" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E32,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F32" t="str" cm="1">
         <f t="array" aca="1" ref="F32" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F32,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4052,11 +3892,11 @@
       </c>
       <c r="H32" t="str" cm="1">
         <f t="array" aca="1" ref="H32" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H32,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I32" t="str" cm="1">
         <f t="array" aca="1" ref="I32" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I32,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J32" t="str" cm="1">
         <f t="array" aca="1" ref="J32" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J32,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4064,15 +3904,15 @@
       </c>
       <c r="K32" t="str" cm="1">
         <f t="array" aca="1" ref="K32" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K32,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L32" t="str" cm="1">
         <f t="array" aca="1" ref="L32" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L32,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M32" t="str" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M32,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N32" t="str" cm="1">
         <f t="array" aca="1" ref="N32" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N32,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4080,11 +3920,11 @@
       </c>
       <c r="O32" t="str" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O32,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P32" t="str" cm="1">
         <f t="array" aca="1" ref="P32" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P32,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q32" t="str" cm="1">
         <f t="array" aca="1" ref="Q32" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q32,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4096,11 +3936,11 @@
       </c>
       <c r="S32" t="str" cm="1">
         <f t="array" aca="1" ref="S32" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S32,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T32" t="str" cm="1">
         <f t="array" aca="1" ref="T32" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T32,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U32" t="str" cm="1">
         <f t="array" aca="1" ref="U32" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U32,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4110,25 +3950,18 @@
         <f t="array" aca="1" ref="V32" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V32,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
       </c>
-      <c r="W32" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+      <c r="W32" t="s">
+        <v>4</v>
       </c>
       <c r="X32" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" t="s">
         <v>4</v>
       </c>
-      <c r="Y32" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="33" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>MC</v>
-      </c>
+    <row r="33" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
       <c r="B33" t="str" cm="1">
         <f t="array" aca="1" ref="B33" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B33,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
@@ -4162,7 +3995,7 @@
       </c>
       <c r="L33" t="str" cm="1">
         <f t="array" aca="1" ref="L33" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L33,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M33" t="str" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M33,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4170,7 +4003,7 @@
       </c>
       <c r="N33" t="str" cm="1">
         <f t="array" aca="1" ref="N33" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N33,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O33" t="str" cm="1">
         <f t="array" aca="1" ref="O33" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O33,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4204,9 +4037,8 @@
         <f t="array" aca="1" ref="V33" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V33,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
       </c>
-      <c r="W33" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>MC</v>
+      <c r="W33" t="s">
+        <v>5</v>
       </c>
       <c r="X33" t="s">
         <v>5</v>
@@ -4214,42 +4046,36 @@
       <c r="Y33" t="s">
         <v>5</v>
       </c>
-      <c r="Z33" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="34" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="34" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
       <c r="B34" t="str" cm="1">
-        <f t="array" aca="1" ref="B34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B34,-1,-1,1,3)="C1"),{4,2,1}))</f>
+        <f t="array" aca="1" ref="B34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B66,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
       </c>
       <c r="C34" t="str" cm="1">
         <f t="array" aca="1" ref="C34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C66,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D34" t="str" cm="1">
         <f t="array" aca="1" ref="D34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D66,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E34" t="str" cm="1">
         <f t="array" aca="1" ref="E34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E66,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F34" t="str" cm="1">
         <f t="array" aca="1" ref="F34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F66,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G34" t="str" cm="1">
         <f t="array" aca="1" ref="G34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G66,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H34" t="str" cm="1">
         <f t="array" aca="1" ref="H34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H66,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I34" t="str" cm="1">
         <f t="array" aca="1" ref="I34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I66,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4257,23 +4083,23 @@
       </c>
       <c r="J34" t="str" cm="1">
         <f t="array" aca="1" ref="J34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J66,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K34" t="str" cm="1">
         <f t="array" aca="1" ref="K34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K66,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L34" t="str" cm="1">
         <f t="array" aca="1" ref="L34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L34,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>MC</v>
+        <v>C1</v>
       </c>
       <c r="M34" t="str" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M34,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N34" t="str" cm="1">
         <f t="array" aca="1" ref="N34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N34,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O34" t="str" cm="1">
         <f t="array" aca="1" ref="O34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O34,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4281,54 +4107,47 @@
       </c>
       <c r="P34" t="str" cm="1">
         <f t="array" aca="1" ref="P34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P34,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q34" t="str" cm="1">
         <f t="array" aca="1" ref="Q34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q34,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R34" t="str" cm="1">
         <f t="array" aca="1" ref="R34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R34,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S34" t="str" cm="1">
         <f t="array" aca="1" ref="S34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S34,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T34" t="str" cm="1">
         <f t="array" aca="1" ref="T34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T34,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U34" t="str" cm="1">
         <f t="array" aca="1" ref="U34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U34,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V34" t="str" cm="1">
         <f t="array" aca="1" ref="V34" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V34,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
       </c>
-      <c r="W34" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+      <c r="W34" t="s">
+        <v>4</v>
       </c>
       <c r="X34" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y34" t="s">
         <v>4</v>
       </c>
-      <c r="Y34" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="35" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="35" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
       <c r="B35" t="str" cm="1">
         <f t="array" aca="1" ref="B35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B35,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C35" t="str" cm="1">
         <f t="array" aca="1" ref="C35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C35,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4336,19 +4155,19 @@
       </c>
       <c r="D35" t="str" cm="1">
         <f t="array" aca="1" ref="D35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D35,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E35" t="str" cm="1">
         <f t="array" aca="1" ref="E35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E35,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F35" t="str" cm="1">
         <f t="array" aca="1" ref="F35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F35,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G35" t="str" cm="1">
         <f t="array" aca="1" ref="G35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G35,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H35" t="str" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H35,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4356,7 +4175,7 @@
       </c>
       <c r="I35" t="str" cm="1">
         <f t="array" aca="1" ref="I35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I35,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J35" t="str" cm="1">
         <f t="array" aca="1" ref="J35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J35,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4364,15 +4183,15 @@
       </c>
       <c r="K35" t="str" cm="1">
         <f t="array" aca="1" ref="K35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K35,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>MC</v>
+        <v>C1</v>
       </c>
       <c r="L35" t="str" cm="1">
         <f t="array" aca="1" ref="L35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L35,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M35" t="str" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M35,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>MC</v>
+        <v>C1</v>
       </c>
       <c r="N35" t="str" cm="1">
         <f t="array" aca="1" ref="N35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N35,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4380,7 +4199,7 @@
       </c>
       <c r="O35" t="str" cm="1">
         <f t="array" aca="1" ref="O35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O35,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P35" t="str" cm="1">
         <f t="array" aca="1" ref="P35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P35,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4388,19 +4207,19 @@
       </c>
       <c r="Q35" t="str" cm="1">
         <f t="array" aca="1" ref="Q35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q35,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R35" t="str" cm="1">
         <f t="array" aca="1" ref="R35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R35,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S35" t="str" cm="1">
         <f t="array" aca="1" ref="S35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S35,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T35" t="str" cm="1">
         <f t="array" aca="1" ref="T35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T35,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U35" t="str" cm="1">
         <f t="array" aca="1" ref="U35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U35,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4408,34 +4227,27 @@
       </c>
       <c r="V35" t="str" cm="1">
         <f t="array" aca="1" ref="V35" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V35,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
-      </c>
-      <c r="W35" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+        <v>MC</v>
+      </c>
+      <c r="W35" t="s">
+        <v>4</v>
       </c>
       <c r="X35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" t="s">
         <v>4</v>
       </c>
-      <c r="Y35" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="36" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="36" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
       <c r="B36" t="str" cm="1">
         <f t="array" aca="1" ref="B36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B36,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
       </c>
       <c r="C36" t="str" cm="1">
         <f t="array" aca="1" ref="C36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C36,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D36" t="str" cm="1">
         <f t="array" aca="1" ref="D36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D36,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4443,11 +4255,11 @@
       </c>
       <c r="E36" t="str" cm="1">
         <f t="array" aca="1" ref="E36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E36,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F36" t="str" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F36,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G36" t="str" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G36,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4455,11 +4267,11 @@
       </c>
       <c r="H36" t="str" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H36,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I36" t="str" cm="1">
         <f t="array" aca="1" ref="I36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I36,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J36" t="str" cm="1">
         <f t="array" aca="1" ref="J36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J36,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4467,15 +4279,15 @@
       </c>
       <c r="K36" t="str" cm="1">
         <f t="array" aca="1" ref="K36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K36,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L36" t="str" cm="1">
         <f t="array" aca="1" ref="L36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L36,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M36" t="str" cm="1">
         <f t="array" aca="1" ref="M36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M36,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N36" t="str" cm="1">
         <f t="array" aca="1" ref="N36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N36,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4483,11 +4295,11 @@
       </c>
       <c r="O36" t="str" cm="1">
         <f t="array" aca="1" ref="O36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O36,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P36" t="str" cm="1">
         <f t="array" aca="1" ref="P36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P36,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q36" t="str" cm="1">
         <f t="array" aca="1" ref="Q36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q36,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4495,11 +4307,11 @@
       </c>
       <c r="R36" t="str" cm="1">
         <f t="array" aca="1" ref="R36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R36,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S36" t="str" cm="1">
         <f t="array" aca="1" ref="S36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S36,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T36" t="str" cm="1">
         <f t="array" aca="1" ref="T36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T36,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4507,15 +4319,14 @@
       </c>
       <c r="U36" t="str" cm="1">
         <f t="array" aca="1" ref="U36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U36,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V36" t="str" cm="1">
         <f t="array" aca="1" ref="V36" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V36,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
       </c>
-      <c r="W36" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+      <c r="W36" t="s">
+        <v>5</v>
       </c>
       <c r="X36" t="s">
         <v>5</v>
@@ -4523,26 +4334,20 @@
       <c r="Y36" t="s">
         <v>5</v>
       </c>
-      <c r="Z36" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="37" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="37" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
       <c r="B37" t="str" cm="1">
         <f t="array" aca="1" ref="B37" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B37,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C37" t="str" cm="1">
         <f t="array" aca="1" ref="C37" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C37,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D37" t="str" cm="1">
         <f t="array" aca="1" ref="D37" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D37,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E37" t="str" cm="1">
         <f t="array" aca="1" ref="E37" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E37,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4554,7 +4359,7 @@
       </c>
       <c r="G37" t="str" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G37,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H37" t="str" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H37,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4566,7 +4371,7 @@
       </c>
       <c r="J37" t="str" cm="1">
         <f t="array" aca="1" ref="J37" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J37,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K37" t="str" cm="1">
         <f t="array" aca="1" ref="K37" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K37,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4574,7 +4379,7 @@
       </c>
       <c r="L37" t="str" cm="1">
         <f t="array" aca="1" ref="L37" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L37,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M37" t="str" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M37,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4582,7 +4387,7 @@
       </c>
       <c r="N37" t="str" cm="1">
         <f t="array" aca="1" ref="N37" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N37,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O37" t="str" cm="1">
         <f t="array" aca="1" ref="O37" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O37,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4594,7 +4399,7 @@
       </c>
       <c r="Q37" t="str" cm="1">
         <f t="array" aca="1" ref="Q37" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q37,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R37" t="str" cm="1">
         <f t="array" aca="1" ref="R37" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R37,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4606,42 +4411,35 @@
       </c>
       <c r="T37" t="str" cm="1">
         <f t="array" aca="1" ref="T37" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T37,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U37" t="str" cm="1">
         <f t="array" aca="1" ref="U37" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U37,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V37" t="str" cm="1">
         <f t="array" aca="1" ref="V37" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V37,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
-      </c>
-      <c r="W37" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+        <v>MC</v>
+      </c>
+      <c r="W37" t="s">
+        <v>4</v>
       </c>
       <c r="X37" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y37" t="s">
         <v>4</v>
       </c>
-      <c r="Y37" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="38" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="38" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
       <c r="B38" t="str" cm="1">
         <f t="array" aca="1" ref="B38" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B38,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C38" t="str" cm="1">
         <f t="array" aca="1" ref="C38" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C38,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D38" t="str" cm="1">
         <f t="array" aca="1" ref="D38" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D38,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4657,7 +4455,7 @@
       </c>
       <c r="G38" t="str" cm="1">
         <f t="array" aca="1" ref="G38" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G38,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H38" t="str" cm="1">
         <f t="array" aca="1" ref="H38" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H38,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4669,23 +4467,23 @@
       </c>
       <c r="J38" t="str" cm="1">
         <f t="array" aca="1" ref="J38" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J38,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K38" t="str" cm="1">
         <f t="array" aca="1" ref="K38" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K38,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L38" t="str" cm="1">
         <f t="array" aca="1" ref="L38" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L38,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M38" t="str" cm="1">
         <f t="array" aca="1" ref="M38" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M38,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N38" t="str" cm="1">
         <f t="array" aca="1" ref="N38" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N38,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O38" t="str" cm="1">
         <f t="array" aca="1" ref="O38" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O38,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4697,7 +4495,7 @@
       </c>
       <c r="Q38" t="str" cm="1">
         <f t="array" aca="1" ref="Q38" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q38,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R38" t="str" cm="1">
         <f t="array" aca="1" ref="R38" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R38,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4713,34 +4511,27 @@
       </c>
       <c r="U38" t="str" cm="1">
         <f t="array" aca="1" ref="U38" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U38,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V38" t="str" cm="1">
         <f t="array" aca="1" ref="V38" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V38,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
-      </c>
-      <c r="W38" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+        <v>MC</v>
+      </c>
+      <c r="W38" t="s">
+        <v>4</v>
       </c>
       <c r="X38" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y38" t="s">
         <v>4</v>
       </c>
-      <c r="Y38" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="39" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="39" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
       <c r="B39" t="str" cm="1">
         <f t="array" aca="1" ref="B39" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B39,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C39" t="str" cm="1">
         <f t="array" aca="1" ref="C39" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C39,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4752,7 +4543,7 @@
       </c>
       <c r="E39" t="str" cm="1">
         <f t="array" aca="1" ref="E39" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E39,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F39" t="str" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F39,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4760,7 +4551,7 @@
       </c>
       <c r="G39" t="str" cm="1">
         <f t="array" aca="1" ref="G39" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G39,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H39" t="str" cm="1">
         <f t="array" aca="1" ref="H39" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H39,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4776,15 +4567,15 @@
       </c>
       <c r="K39" t="str" cm="1">
         <f t="array" aca="1" ref="K39" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K39,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L39" t="str" cm="1">
         <f t="array" aca="1" ref="L39" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L39,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M39" t="str" cm="1">
         <f t="array" aca="1" ref="M39" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M39,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N39" t="str" cm="1">
         <f t="array" aca="1" ref="N39" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N39,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4800,7 +4591,7 @@
       </c>
       <c r="Q39" t="str" cm="1">
         <f t="array" aca="1" ref="Q39" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q39,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R39" t="str" cm="1">
         <f t="array" aca="1" ref="R39" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R39,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4808,7 +4599,7 @@
       </c>
       <c r="S39" t="str" cm="1">
         <f t="array" aca="1" ref="S39" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S39,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T39" t="str" cm="1">
         <f t="array" aca="1" ref="T39" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T39,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4820,11 +4611,10 @@
       </c>
       <c r="V39" t="str" cm="1">
         <f t="array" aca="1" ref="V39" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V39,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
-      </c>
-      <c r="W39" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+        <v>MC</v>
+      </c>
+      <c r="W39" t="s">
+        <v>5</v>
       </c>
       <c r="X39" t="s">
         <v>5</v>
@@ -4832,15 +4622,9 @@
       <c r="Y39" t="s">
         <v>5</v>
       </c>
-      <c r="Z39" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="40" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="40" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
       <c r="B40" t="str" cm="1">
         <f t="array" aca="1" ref="B40" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B40,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
@@ -4855,15 +4639,15 @@
       </c>
       <c r="E40" t="str" cm="1">
         <f t="array" aca="1" ref="E40" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E40,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F40" t="str" cm="1">
         <f t="array" aca="1" ref="F40" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F40,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G40" t="str" cm="1">
         <f t="array" aca="1" ref="G40" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G40,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H40" t="str" cm="1">
         <f t="array" aca="1" ref="H40" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H40,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4871,7 +4655,7 @@
       </c>
       <c r="I40" t="str" cm="1">
         <f t="array" aca="1" ref="I40" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I40,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J40" t="str" cm="1">
         <f t="array" aca="1" ref="J40" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J40,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4883,7 +4667,7 @@
       </c>
       <c r="L40" t="str" cm="1">
         <f t="array" aca="1" ref="L40" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L40,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M40" t="str" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M40,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4895,7 +4679,7 @@
       </c>
       <c r="O40" t="str" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O40,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P40" t="str" cm="1">
         <f t="array" aca="1" ref="P40" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P40,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4903,15 +4687,15 @@
       </c>
       <c r="Q40" t="str" cm="1">
         <f t="array" aca="1" ref="Q40" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q40,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R40" t="str" cm="1">
         <f t="array" aca="1" ref="R40" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R40,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S40" t="str" cm="1">
         <f t="array" aca="1" ref="S40" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S40,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T40" t="str" cm="1">
         <f t="array" aca="1" ref="T40" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T40,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4925,32 +4709,25 @@
         <f t="array" aca="1" ref="V40" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V40,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
       </c>
-      <c r="W40" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+      <c r="W40" t="s">
+        <v>4</v>
       </c>
       <c r="X40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y40" t="s">
         <v>4</v>
       </c>
-      <c r="Y40" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="41" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>MC</v>
-      </c>
+    <row r="41" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
       <c r="B41" t="str" cm="1">
         <f t="array" aca="1" ref="B41" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B41,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
       </c>
       <c r="C41" t="str" cm="1">
         <f t="array" aca="1" ref="C41" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C41,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D41" t="str" cm="1">
         <f t="array" aca="1" ref="D41" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D41,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4962,7 +4739,7 @@
       </c>
       <c r="F41" t="str" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F41,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G41" t="str" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G41,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4970,11 +4747,11 @@
       </c>
       <c r="H41" t="str" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H41,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I41" t="str" cm="1">
         <f t="array" aca="1" ref="I41" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I41,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J41" t="str" cm="1">
         <f t="array" aca="1" ref="J41" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J41,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4986,7 +4763,7 @@
       </c>
       <c r="L41" t="str" cm="1">
         <f t="array" aca="1" ref="L41" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L41,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M41" t="str" cm="1">
         <f t="array" aca="1" ref="M41" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M41,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -4998,11 +4775,11 @@
       </c>
       <c r="O41" t="str" cm="1">
         <f t="array" aca="1" ref="O41" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O41,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P41" t="str" cm="1">
         <f t="array" aca="1" ref="P41" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P41,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q41" t="str" cm="1">
         <f t="array" aca="1" ref="Q41" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q41,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5010,7 +4787,7 @@
       </c>
       <c r="R41" t="str" cm="1">
         <f t="array" aca="1" ref="R41" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R41,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S41" t="str" cm="1">
         <f t="array" aca="1" ref="S41" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S41,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5022,38 +4799,31 @@
       </c>
       <c r="U41" t="str" cm="1">
         <f t="array" aca="1" ref="U41" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U41,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V41" t="str" cm="1">
         <f t="array" aca="1" ref="V41" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V41,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
       </c>
-      <c r="W41" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>MC</v>
+      <c r="W41" t="s">
+        <v>4</v>
       </c>
       <c r="X41" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" t="s">
         <v>4</v>
       </c>
-      <c r="Y41" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="42" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="42" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
       <c r="B42" t="str" cm="1">
         <f t="array" aca="1" ref="B42" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B42,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C42" t="str" cm="1">
         <f t="array" aca="1" ref="C42" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C42,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D42" t="str" cm="1">
         <f t="array" aca="1" ref="D42" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D42,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5065,11 +4835,11 @@
       </c>
       <c r="F42" t="str" cm="1">
         <f t="array" aca="1" ref="F42" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F42,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G42" t="str" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G42,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H42" t="str" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H42,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5089,7 +4859,7 @@
       </c>
       <c r="L42" t="str" cm="1">
         <f t="array" aca="1" ref="L42" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L42,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M42" t="str" cm="1">
         <f t="array" aca="1" ref="M42" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M42,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5109,11 +4879,11 @@
       </c>
       <c r="Q42" t="str" cm="1">
         <f t="array" aca="1" ref="Q42" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q42,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R42" t="str" cm="1">
         <f t="array" aca="1" ref="R42" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R42,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S42" t="str" cm="1">
         <f t="array" aca="1" ref="S42" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S42,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5125,15 +4895,14 @@
       </c>
       <c r="U42" t="str" cm="1">
         <f t="array" aca="1" ref="U42" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U42,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V42" t="str" cm="1">
         <f t="array" aca="1" ref="V42" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V42,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
-      </c>
-      <c r="W42" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+        <v>MC</v>
+      </c>
+      <c r="W42" t="s">
+        <v>5</v>
       </c>
       <c r="X42" t="s">
         <v>5</v>
@@ -5141,18 +4910,12 @@
       <c r="Y42" t="s">
         <v>5</v>
       </c>
-      <c r="Z42" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="43" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="43" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
       <c r="B43" t="str" cm="1">
         <f t="array" aca="1" ref="B43" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B43,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C43" t="str" cm="1">
         <f t="array" aca="1" ref="C43" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C43,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5180,11 +4943,11 @@
       </c>
       <c r="I43" t="str" cm="1">
         <f t="array" aca="1" ref="I43" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I43,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J43" t="str" cm="1">
         <f t="array" aca="1" ref="J43" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J43,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K43" t="str" cm="1">
         <f t="array" aca="1" ref="K43" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K43,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5192,7 +4955,7 @@
       </c>
       <c r="L43" t="str" cm="1">
         <f t="array" aca="1" ref="L43" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L43,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M43" t="str" cm="1">
         <f t="array" aca="1" ref="M43" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M43,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5200,11 +4963,11 @@
       </c>
       <c r="N43" t="str" cm="1">
         <f t="array" aca="1" ref="N43" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N43,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O43" t="str" cm="1">
         <f t="array" aca="1" ref="O43" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O43,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P43" t="str" cm="1">
         <f t="array" aca="1" ref="P43" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P43,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5232,27 +4995,20 @@
       </c>
       <c r="V43" t="str" cm="1">
         <f t="array" aca="1" ref="V43" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V43,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
-      </c>
-      <c r="W43" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+        <v>MC</v>
+      </c>
+      <c r="W43" t="s">
+        <v>4</v>
       </c>
       <c r="X43" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" t="s">
         <v>4</v>
       </c>
-      <c r="Y43" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="44" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="44" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
       <c r="B44" t="str" cm="1">
         <f t="array" aca="1" ref="B44" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B44,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
@@ -5263,19 +5019,19 @@
       </c>
       <c r="D44" t="str" cm="1">
         <f t="array" aca="1" ref="D44" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D44,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E44" t="str" cm="1">
         <f t="array" aca="1" ref="E44" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E44,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F44" t="str" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F44,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G44" t="str" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G44,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H44" t="str" cm="1">
         <f t="array" aca="1" ref="H44" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H44,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5291,15 +5047,15 @@
       </c>
       <c r="K44" t="str" cm="1">
         <f t="array" aca="1" ref="K44" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K44,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L44" t="str" cm="1">
         <f t="array" aca="1" ref="L44" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L44,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M44" t="str" cm="1">
         <f t="array" aca="1" ref="M44" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M44,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N44" t="str" cm="1">
         <f t="array" aca="1" ref="N44" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(N44,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5315,19 +5071,19 @@
       </c>
       <c r="Q44" t="str" cm="1">
         <f t="array" aca="1" ref="Q44" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q44,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R44" t="str" cm="1">
         <f t="array" aca="1" ref="R44" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R44,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S44" t="str" cm="1">
         <f t="array" aca="1" ref="S44" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S44,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T44" t="str" cm="1">
         <f t="array" aca="1" ref="T44" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T44,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U44" t="str" cm="1">
         <f t="array" aca="1" ref="U44" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U44,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5337,25 +5093,18 @@
         <f t="array" aca="1" ref="V44" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V44,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
       </c>
-      <c r="W44" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+      <c r="W44" t="s">
+        <v>4</v>
       </c>
       <c r="X44" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" t="s">
         <v>4</v>
       </c>
-      <c r="Y44" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="45" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>MC</v>
-      </c>
+    <row r="45" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
       <c r="B45" t="str" cm="1">
         <f t="array" aca="1" ref="B45" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B45,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
@@ -5370,11 +5119,11 @@
       </c>
       <c r="E45" t="str" cm="1">
         <f t="array" aca="1" ref="E45" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E45,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F45" t="str" cm="1">
         <f t="array" aca="1" ref="F45" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F45,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G45" t="str" cm="1">
         <f t="array" aca="1" ref="G45" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G45,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5386,7 +5135,7 @@
       </c>
       <c r="I45" t="str" cm="1">
         <f t="array" aca="1" ref="I45" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I45,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J45" t="str" cm="1">
         <f t="array" aca="1" ref="J45" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J45,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5398,7 +5147,7 @@
       </c>
       <c r="L45" t="str" cm="1">
         <f t="array" aca="1" ref="L45" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L45,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M45" t="str" cm="1">
         <f t="array" aca="1" ref="M45" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M45,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5410,7 +5159,7 @@
       </c>
       <c r="O45" t="str" cm="1">
         <f t="array" aca="1" ref="O45" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O45,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P45" t="str" cm="1">
         <f t="array" aca="1" ref="P45" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P45,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5422,11 +5171,11 @@
       </c>
       <c r="R45" t="str" cm="1">
         <f t="array" aca="1" ref="R45" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R45,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S45" t="str" cm="1">
         <f t="array" aca="1" ref="S45" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S45,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T45" t="str" cm="1">
         <f t="array" aca="1" ref="T45" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T45,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5440,9 +5189,8 @@
         <f t="array" aca="1" ref="V45" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V45,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
       </c>
-      <c r="W45" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>MC</v>
+      <c r="W45" t="s">
+        <v>5</v>
       </c>
       <c r="X45" t="s">
         <v>5</v>
@@ -5450,22 +5198,16 @@
       <c r="Y45" t="s">
         <v>5</v>
       </c>
-      <c r="Z45" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="46" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="46" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
       <c r="B46" t="str" cm="1">
         <f t="array" aca="1" ref="B46" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B46,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
       </c>
       <c r="C46" t="str" cm="1">
         <f t="array" aca="1" ref="C46" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C46,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D46" t="str" cm="1">
         <f t="array" aca="1" ref="D46" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D46,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5489,7 +5231,7 @@
       </c>
       <c r="I46" t="str" cm="1">
         <f t="array" aca="1" ref="I46" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I46,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J46" t="str" cm="1">
         <f t="array" aca="1" ref="J46" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J46,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5501,7 +5243,7 @@
       </c>
       <c r="L46" t="str" cm="1">
         <f t="array" aca="1" ref="L46" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L46,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M46" t="str" cm="1">
         <f t="array" aca="1" ref="M46" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M46,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5513,7 +5255,7 @@
       </c>
       <c r="O46" t="str" cm="1">
         <f t="array" aca="1" ref="O46" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O46,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P46" t="str" cm="1">
         <f t="array" aca="1" ref="P46" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P46,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5537,38 +5279,31 @@
       </c>
       <c r="U46" t="str" cm="1">
         <f t="array" aca="1" ref="U46" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U46,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V46" t="str" cm="1">
         <f t="array" aca="1" ref="V46" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V46,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
       </c>
-      <c r="W46" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+      <c r="W46" t="s">
+        <v>4</v>
       </c>
       <c r="X46" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" t="s">
         <v>4</v>
       </c>
-      <c r="Y46" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="47" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C1</v>
-      </c>
+    <row r="47" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
       <c r="B47" t="str" cm="1">
         <f t="array" aca="1" ref="B47" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B47,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C47" t="str" cm="1">
         <f t="array" aca="1" ref="C47" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(C47,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D47" t="str" cm="1">
         <f t="array" aca="1" ref="D47" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(D47,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5576,15 +5311,15 @@
       </c>
       <c r="E47" t="str" cm="1">
         <f t="array" aca="1" ref="E47" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(E47,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F47" t="str" cm="1">
         <f t="array" aca="1" ref="F47" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(F47,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G47" t="str" cm="1">
         <f t="array" aca="1" ref="G47" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(G47,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H47" t="str" cm="1">
         <f t="array" aca="1" ref="H47" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(H47,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5592,7 +5327,7 @@
       </c>
       <c r="I47" t="str" cm="1">
         <f t="array" aca="1" ref="I47" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(I47,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J47" t="str" cm="1">
         <f t="array" aca="1" ref="J47" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J47,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5604,7 +5339,7 @@
       </c>
       <c r="L47" t="str" cm="1">
         <f t="array" aca="1" ref="L47" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L47,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M47" t="str" cm="1">
         <f t="array" aca="1" ref="M47" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M47,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5616,7 +5351,7 @@
       </c>
       <c r="O47" t="str" cm="1">
         <f t="array" aca="1" ref="O47" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(O47,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P47" t="str" cm="1">
         <f t="array" aca="1" ref="P47" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(P47,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5624,15 +5359,15 @@
       </c>
       <c r="Q47" t="str" cm="1">
         <f t="array" aca="1" ref="Q47" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(Q47,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R47" t="str" cm="1">
         <f t="array" aca="1" ref="R47" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(R47,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S47" t="str" cm="1">
         <f t="array" aca="1" ref="S47" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(S47,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T47" t="str" cm="1">
         <f t="array" aca="1" ref="T47" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(T47,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -5640,27 +5375,23 @@
       </c>
       <c r="U47" t="str" cm="1">
         <f t="array" aca="1" ref="U47" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(U47,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V47" t="str" cm="1">
         <f t="array" aca="1" ref="V47" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(V47,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
-      </c>
-      <c r="W47" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C1</v>
+        <v>MC</v>
+      </c>
+      <c r="W47" t="s">
+        <v>4</v>
       </c>
       <c r="X47" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" t="s">
         <v>4</v>
       </c>
-      <c r="Y47" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="48" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>5</v>
       </c>
@@ -5724,17 +5455,17 @@
       <c r="V48" t="s">
         <v>5</v>
       </c>
+      <c r="W48" t="s">
+        <v>5</v>
+      </c>
       <c r="X48" t="s">
         <v>5</v>
       </c>
       <c r="Y48" t="s">
         <v>5</v>
       </c>
-      <c r="Z48" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="49" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:31" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>7</v>
       </c>
@@ -5798,252 +5529,247 @@
       <c r="V49" t="s">
         <v>7</v>
       </c>
+      <c r="W49" t="s">
+        <v>7</v>
+      </c>
       <c r="X49" t="s">
         <v>7</v>
       </c>
       <c r="Y49" t="s">
         <v>7</v>
       </c>
-      <c r="Z49" t="s">
+    </row>
+    <row r="50" spans="2:31" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" t="s">
+        <v>5</v>
+      </c>
+      <c r="K50" t="s">
+        <v>5</v>
+      </c>
+      <c r="L50" t="s">
+        <v>5</v>
+      </c>
+      <c r="M50" t="s">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>5</v>
+      </c>
+      <c r="O50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P50" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s">
+        <v>5</v>
+      </c>
+      <c r="S50" t="s">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s">
+        <v>5</v>
+      </c>
+      <c r="U50" t="s">
+        <v>5</v>
+      </c>
+      <c r="V50" t="s">
+        <v>5</v>
+      </c>
+      <c r="W50" t="s">
+        <v>5</v>
+      </c>
+      <c r="X50" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:31" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>7</v>
       </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" t="s">
+        <v>7</v>
+      </c>
+      <c r="L51" t="s">
+        <v>2</v>
+      </c>
+      <c r="M51" t="s">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>7</v>
+      </c>
+      <c r="P51" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>2</v>
+      </c>
+      <c r="R51" t="s">
+        <v>7</v>
+      </c>
+      <c r="S51" t="s">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s">
+        <v>2</v>
+      </c>
+      <c r="U51" t="s">
+        <v>2</v>
+      </c>
+      <c r="V51" t="s">
+        <v>7</v>
+      </c>
+      <c r="W51" t="s">
+        <v>2</v>
+      </c>
+      <c r="X51" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="50" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z50" s="1" t="s">
+    <row r="52" spans="2:31" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="str">
+        <f>IF(ROUNDDOWN(MOD(rule/2^((COLUMN(ruleout0)-COLUMN())/3),2),0)=1,"C1","MC")</f>
+        <v>MC</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" t="str">
+        <f>IF(ROUNDDOWN(MOD(rule/2^((COLUMN(ruleout0)-COLUMN())/3),2),0)=1,"C1","MC")</f>
+        <v>C1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" t="str">
+        <f>IF(ROUNDDOWN(MOD(rule/2^((COLUMN(ruleout0)-COLUMN())/3),2),0)=1,"C1","MC")</f>
+        <v>MC</v>
+      </c>
+      <c r="J52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" t="str">
+        <f>IF(ROUNDDOWN(MOD(rule/2^((COLUMN(ruleout0)-COLUMN())/3),2),0)=1,"C1","MC")</f>
+        <v>C1</v>
+      </c>
+      <c r="M52" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" t="str">
+        <f>IF(ROUNDDOWN(MOD(rule/2^((COLUMN(ruleout0)-COLUMN())/3),2),0)=1,"C1","MC")</f>
+        <v>C1</v>
+      </c>
+      <c r="P52" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" t="str">
+        <f>IF(ROUNDDOWN(MOD(rule/2^((COLUMN(ruleout0)-COLUMN())/3),2),0)=1,"C1","MC")</f>
+        <v>MC</v>
+      </c>
+      <c r="S52" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" t="str">
+        <f>IF(ROUNDDOWN(MOD(rule/2^((COLUMN(ruleout0)-COLUMN())/3),2),0)=1,"C1","MC")</f>
+        <v>C1</v>
+      </c>
+      <c r="V52" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" t="str">
+        <f>IF(ROUNDDOWN(MOD(rule/2^((COLUMN(ruleout0)-COLUMN())/3),2),0)=1,"C1","MC")</f>
+        <v>MC</v>
+      </c>
+      <c r="Y52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z51" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="1" t="str">
-        <f>IF(ROUNDDOWN(MOD(rule/2^((COLUMN(ruleout0)-COLUMN())/3),2),0)=1,"C1","MC")</f>
-        <v>C1</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="1" t="str">
-        <f>IF(ROUNDDOWN(MOD(rule/2^((COLUMN(ruleout0)-COLUMN())/3),2),0)=1,"C1","MC")</f>
-        <v>MC</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="1" t="str">
-        <f>IF(ROUNDDOWN(MOD(rule/2^((COLUMN(ruleout0)-COLUMN())/3),2),0)=1,"C1","MC")</f>
-        <v>C1</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="1" t="str">
-        <f>IF(ROUNDDOWN(MOD(rule/2^((COLUMN(ruleout0)-COLUMN())/3),2),0)=1,"C1","MC")</f>
-        <v>C1</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="1" t="str">
-        <f>IF(ROUNDDOWN(MOD(rule/2^((COLUMN(ruleout0)-COLUMN())/3),2),0)=1,"C1","MC")</f>
-        <v>MC</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="1" t="str">
-        <f>IF(ROUNDDOWN(MOD(rule/2^((COLUMN(ruleout0)-COLUMN())/3),2),0)=1,"C1","MC")</f>
-        <v>C1</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="1" t="str">
-        <f>IF(ROUNDDOWN(MOD(rule/2^((COLUMN(ruleout0)-COLUMN())/3),2),0)=1,"C1","MC")</f>
-        <v>C1</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="1" t="str">
-        <f>IF(ROUNDDOWN(MOD(rule/2^((COLUMN(ruleout0)-COLUMN())/3),2),0)=1,"C1","MC")</f>
-        <v>C1</v>
-      </c>
-      <c r="Z52" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:31" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>2</v>
       </c>
@@ -6107,17 +5833,20 @@
       <c r="V53" t="s">
         <v>2</v>
       </c>
+      <c r="W53" t="s">
+        <v>2</v>
+      </c>
       <c r="X53" t="s">
         <v>2</v>
       </c>
       <c r="Y53" t="s">
         <v>2</v>
       </c>
-      <c r="Z53" t="s">
-        <v>2</v>
+      <c r="AE53">
+        <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:31" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>7</v>
       </c>
@@ -6181,20 +5910,70 @@
       <c r="V54" t="s">
         <v>7</v>
       </c>
+      <c r="W54" t="s">
+        <v>7</v>
+      </c>
       <c r="X54" t="s">
         <v>7</v>
       </c>
       <c r="Y54" t="s">
         <v>7</v>
       </c>
-      <c r="Z54" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="O62" s="2"/>
+    <row r="55" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AB55">
+        <v>3</v>
+      </c>
+      <c r="AC55">
+        <v>2</v>
+      </c>
+      <c r="AD55">
+        <v>1</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AB56">
+        <f t="shared" ref="AB56:AD56" si="0">ROUNDDOWN(MOD($AE53/2^AB55,2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE56">
+        <f>ROUNDDOWN(MOD($AE53/2^AE55,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AB57">
+        <f t="shared" ref="AB57:AD57" si="1">MOD(QUOTIENT($AE53,2^AB55),2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AE57">
+        <f>MOD(QUOTIENT($AE53,2^AE55),2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="O62" s="1"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" t="str" cm="1">
         <f t="array" aca="1" ref="B65" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(B33,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>MC</v>
@@ -6229,7 +6008,7 @@
       </c>
       <c r="J65" t="str" cm="1">
         <f t="array" aca="1" ref="J65" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(J33,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K65" t="str" cm="1">
         <f t="array" aca="1" ref="K65" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(K33,-1,-1,1,3)="C1"),{4,2,1}))</f>
@@ -6237,37 +6016,37 @@
       </c>
       <c r="L65" t="str" cm="1">
         <f t="array" aca="1" ref="L65" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(L33,-1,-1,1,3)="C1"),{4,2,1}))</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M65" t="str" cm="1">
         <f t="array" aca="1" ref="M65" ca="1">INDIRECT("ruleout"&amp;SUMPRODUCT(--(OFFSET(M33,-1,-1,1,3)="C1"),{4,2,1}))</f>
         <v>C1</v>
       </c>
     </row>
-    <row r="66" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" t="str">
         <f ca="1">C34</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" ref="D66:K66" ca="1" si="2">D34</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6275,16 +6054,16 @@
       </c>
       <c r="J66" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C1</v>
+        <v>MC</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="AB2 B2:Z54">
+  <conditionalFormatting sqref="AA2 B2:Y54">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Blank_Thumb">
       <formula>NOT(ISERROR(SEARCH("Blank_Thumb",B2)))</formula>
     </cfRule>
@@ -6309,7 +6088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView topLeftCell="K40" workbookViewId="0">
@@ -6404,15 +6183,15 @@
         <v>21</v>
       </c>
       <c r="V1">
+        <f>'mitten_rule-30'!W1</f>
+        <v>22</v>
+      </c>
+      <c r="W1">
         <f>'mitten_rule-30'!X1</f>
-        <v>22</v>
-      </c>
-      <c r="W1">
+        <v>23</v>
+      </c>
+      <c r="X1">
         <f>'mitten_rule-30'!Y1</f>
-        <v>23</v>
-      </c>
-      <c r="X1">
-        <f>'mitten_rule-30'!Z1</f>
         <v>24</v>
       </c>
     </row>
@@ -6502,15 +6281,15 @@
         <v>None</v>
       </c>
       <c r="V2" t="str">
+        <f>'mitten_rule-30'!W2</f>
+        <v>MC</v>
+      </c>
+      <c r="W2" t="str">
         <f>'mitten_rule-30'!X2</f>
-        <v>MC</v>
-      </c>
-      <c r="W2" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X2" t="str">
         <f>'mitten_rule-30'!Y2</f>
-        <v>C2</v>
-      </c>
-      <c r="X2" t="str">
-        <f>'mitten_rule-30'!Z2</f>
         <v>MC</v>
       </c>
     </row>
@@ -6557,7 +6336,7 @@
       </c>
       <c r="K3" t="str">
         <f ca="1">'mitten_rule-30'!L3</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L3" t="str">
         <f ca="1">'mitten_rule-30'!M3</f>
@@ -6600,15 +6379,15 @@
         <v>None</v>
       </c>
       <c r="V3" t="str">
+        <f>'mitten_rule-30'!W3</f>
+        <v>C2</v>
+      </c>
+      <c r="W3" t="str">
         <f>'mitten_rule-30'!X3</f>
         <v>C2</v>
       </c>
-      <c r="W3" t="str">
+      <c r="X3" t="str">
         <f>'mitten_rule-30'!Y3</f>
-        <v>C2</v>
-      </c>
-      <c r="X3" t="str">
-        <f>'mitten_rule-30'!Z3</f>
         <v>C2</v>
       </c>
     </row>
@@ -6655,7 +6434,7 @@
       </c>
       <c r="K4" t="str">
         <f ca="1">'mitten_rule-30'!L4</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L4" t="str">
         <f ca="1">'mitten_rule-30'!M4</f>
@@ -6698,15 +6477,15 @@
         <v>None</v>
       </c>
       <c r="V4" t="str">
+        <f>'mitten_rule-30'!W4</f>
+        <v>MC</v>
+      </c>
+      <c r="W4" t="str">
         <f>'mitten_rule-30'!X4</f>
-        <v>MC</v>
-      </c>
-      <c r="W4" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X4" t="str">
         <f>'mitten_rule-30'!Y4</f>
-        <v>C2</v>
-      </c>
-      <c r="X4" t="str">
-        <f>'mitten_rule-30'!Z4</f>
         <v>MC</v>
       </c>
     </row>
@@ -6745,7 +6524,7 @@
       </c>
       <c r="I5" t="str">
         <f ca="1">'mitten_rule-30'!J5</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J5" t="str">
         <f ca="1">'mitten_rule-30'!K5</f>
@@ -6753,7 +6532,7 @@
       </c>
       <c r="K5" t="str">
         <f ca="1">'mitten_rule-30'!L5</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L5" t="str">
         <f ca="1">'mitten_rule-30'!M5</f>
@@ -6761,7 +6540,7 @@
       </c>
       <c r="M5" t="str">
         <f ca="1">'mitten_rule-30'!N5</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N5" t="str">
         <f ca="1">'mitten_rule-30'!O5</f>
@@ -6796,15 +6575,15 @@
         <v>None</v>
       </c>
       <c r="V5" t="str">
+        <f>'mitten_rule-30'!W5</f>
+        <v>MC</v>
+      </c>
+      <c r="W5" t="str">
         <f>'mitten_rule-30'!X5</f>
-        <v>MC</v>
-      </c>
-      <c r="W5" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X5" t="str">
         <f>'mitten_rule-30'!Y5</f>
-        <v>C2</v>
-      </c>
-      <c r="X5" t="str">
-        <f>'mitten_rule-30'!Z5</f>
         <v>MC</v>
       </c>
     </row>
@@ -6843,23 +6622,23 @@
       </c>
       <c r="I6" t="str">
         <f ca="1">'mitten_rule-30'!J6</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J6" t="str">
         <f ca="1">'mitten_rule-30'!K6</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K6" t="str">
         <f ca="1">'mitten_rule-30'!L6</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L6" t="str">
         <f ca="1">'mitten_rule-30'!M6</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M6" t="str">
         <f ca="1">'mitten_rule-30'!N6</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N6" t="str">
         <f ca="1">'mitten_rule-30'!O6</f>
@@ -6894,15 +6673,15 @@
         <v>None</v>
       </c>
       <c r="V6" t="str">
+        <f>'mitten_rule-30'!W6</f>
+        <v>C2</v>
+      </c>
+      <c r="W6" t="str">
         <f>'mitten_rule-30'!X6</f>
         <v>C2</v>
       </c>
-      <c r="W6" t="str">
+      <c r="X6" t="str">
         <f>'mitten_rule-30'!Y6</f>
-        <v>C2</v>
-      </c>
-      <c r="X6" t="str">
-        <f>'mitten_rule-30'!Z6</f>
         <v>C2</v>
       </c>
     </row>
@@ -6933,7 +6712,7 @@
       </c>
       <c r="G7" t="str">
         <f ca="1">'mitten_rule-30'!H7</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H7" t="str">
         <f ca="1">'mitten_rule-30'!I7</f>
@@ -6945,15 +6724,15 @@
       </c>
       <c r="J7" t="str">
         <f ca="1">'mitten_rule-30'!K7</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K7" t="str">
         <f ca="1">'mitten_rule-30'!L7</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L7" t="str">
         <f ca="1">'mitten_rule-30'!M7</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M7" t="str">
         <f ca="1">'mitten_rule-30'!N7</f>
@@ -6965,7 +6744,7 @@
       </c>
       <c r="O7" t="str">
         <f ca="1">'mitten_rule-30'!P7</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P7" t="str">
         <f ca="1">'mitten_rule-30'!Q7</f>
@@ -6992,15 +6771,15 @@
         <v>None</v>
       </c>
       <c r="V7" t="str">
+        <f>'mitten_rule-30'!W7</f>
+        <v>MC</v>
+      </c>
+      <c r="W7" t="str">
         <f>'mitten_rule-30'!X7</f>
-        <v>MC</v>
-      </c>
-      <c r="W7" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X7" t="str">
         <f>'mitten_rule-30'!Y7</f>
-        <v>C2</v>
-      </c>
-      <c r="X7" t="str">
-        <f>'mitten_rule-30'!Z7</f>
         <v>MC</v>
       </c>
     </row>
@@ -7031,7 +6810,7 @@
       </c>
       <c r="G8" t="str">
         <f ca="1">'mitten_rule-30'!H8</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H8" t="str">
         <f ca="1">'mitten_rule-30'!I8</f>
@@ -7047,7 +6826,7 @@
       </c>
       <c r="K8" t="str">
         <f ca="1">'mitten_rule-30'!L8</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L8" t="str">
         <f ca="1">'mitten_rule-30'!M8</f>
@@ -7063,7 +6842,7 @@
       </c>
       <c r="O8" t="str">
         <f ca="1">'mitten_rule-30'!P8</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P8" t="str">
         <f ca="1">'mitten_rule-30'!Q8</f>
@@ -7090,15 +6869,15 @@
         <v>None</v>
       </c>
       <c r="V8" t="str">
+        <f>'mitten_rule-30'!W8</f>
+        <v>MC</v>
+      </c>
+      <c r="W8" t="str">
         <f>'mitten_rule-30'!X8</f>
-        <v>MC</v>
-      </c>
-      <c r="W8" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X8" t="str">
         <f>'mitten_rule-30'!Y8</f>
-        <v>C2</v>
-      </c>
-      <c r="X8" t="str">
-        <f>'mitten_rule-30'!Z8</f>
         <v>MC</v>
       </c>
     </row>
@@ -7121,7 +6900,7 @@
       </c>
       <c r="E9" t="str">
         <f ca="1">'mitten_rule-30'!F9</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F9" t="str">
         <f ca="1">'mitten_rule-30'!G9</f>
@@ -7129,7 +6908,7 @@
       </c>
       <c r="G9" t="str">
         <f ca="1">'mitten_rule-30'!H9</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H9" t="str">
         <f ca="1">'mitten_rule-30'!I9</f>
@@ -7137,7 +6916,7 @@
       </c>
       <c r="I9" t="str">
         <f ca="1">'mitten_rule-30'!J9</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J9" t="str">
         <f ca="1">'mitten_rule-30'!K9</f>
@@ -7145,7 +6924,7 @@
       </c>
       <c r="K9" t="str">
         <f ca="1">'mitten_rule-30'!L9</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L9" t="str">
         <f ca="1">'mitten_rule-30'!M9</f>
@@ -7153,7 +6932,7 @@
       </c>
       <c r="M9" t="str">
         <f ca="1">'mitten_rule-30'!N9</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N9" t="str">
         <f ca="1">'mitten_rule-30'!O9</f>
@@ -7161,7 +6940,7 @@
       </c>
       <c r="O9" t="str">
         <f ca="1">'mitten_rule-30'!P9</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P9" t="str">
         <f ca="1">'mitten_rule-30'!Q9</f>
@@ -7169,7 +6948,7 @@
       </c>
       <c r="Q9" t="str">
         <f ca="1">'mitten_rule-30'!R9</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R9" t="str">
         <f ca="1">'mitten_rule-30'!S9</f>
@@ -7188,15 +6967,15 @@
         <v>None</v>
       </c>
       <c r="V9" t="str">
+        <f>'mitten_rule-30'!W9</f>
+        <v>C2</v>
+      </c>
+      <c r="W9" t="str">
         <f>'mitten_rule-30'!X9</f>
         <v>C2</v>
       </c>
-      <c r="W9" t="str">
+      <c r="X9" t="str">
         <f>'mitten_rule-30'!Y9</f>
-        <v>C2</v>
-      </c>
-      <c r="X9" t="str">
-        <f>'mitten_rule-30'!Z9</f>
         <v>C2</v>
       </c>
     </row>
@@ -7219,55 +6998,55 @@
       </c>
       <c r="E10" t="str">
         <f ca="1">'mitten_rule-30'!F10</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F10" t="str">
         <f ca="1">'mitten_rule-30'!G10</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G10" t="str">
         <f ca="1">'mitten_rule-30'!H10</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H10" t="str">
         <f ca="1">'mitten_rule-30'!I10</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I10" t="str">
         <f ca="1">'mitten_rule-30'!J10</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J10" t="str">
         <f ca="1">'mitten_rule-30'!K10</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K10" t="str">
         <f ca="1">'mitten_rule-30'!L10</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L10" t="str">
         <f ca="1">'mitten_rule-30'!M10</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M10" t="str">
         <f ca="1">'mitten_rule-30'!N10</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N10" t="str">
         <f ca="1">'mitten_rule-30'!O10</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O10" t="str">
         <f ca="1">'mitten_rule-30'!P10</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P10" t="str">
         <f ca="1">'mitten_rule-30'!Q10</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q10" t="str">
         <f ca="1">'mitten_rule-30'!R10</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R10" t="str">
         <f ca="1">'mitten_rule-30'!S10</f>
@@ -7286,22 +7065,22 @@
         <v>SSK</v>
       </c>
       <c r="V10" t="str">
+        <f>'mitten_rule-30'!W10</f>
+        <v>MC</v>
+      </c>
+      <c r="W10" t="str">
         <f>'mitten_rule-30'!X10</f>
-        <v>MC</v>
-      </c>
-      <c r="W10" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X10" t="str">
         <f>'mitten_rule-30'!Y10</f>
-        <v>C2</v>
-      </c>
-      <c r="X10" t="str">
-        <f>'mitten_rule-30'!Z10</f>
         <v>MC</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f ca="1">'mitten_rule-30'!B11</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="B11" t="str">
         <f ca="1">'mitten_rule-30'!C11</f>
@@ -7309,7 +7088,7 @@
       </c>
       <c r="C11" t="str">
         <f ca="1">'mitten_rule-30'!D11</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D11" t="str">
         <f ca="1">'mitten_rule-30'!E11</f>
@@ -7321,47 +7100,47 @@
       </c>
       <c r="F11" t="str">
         <f ca="1">'mitten_rule-30'!G11</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G11" t="str">
         <f ca="1">'mitten_rule-30'!H11</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H11" t="str">
         <f ca="1">'mitten_rule-30'!I11</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I11" t="str">
         <f ca="1">'mitten_rule-30'!J11</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J11" t="str">
         <f ca="1">'mitten_rule-30'!K11</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K11" t="str">
         <f ca="1">'mitten_rule-30'!L11</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L11" t="str">
         <f ca="1">'mitten_rule-30'!M11</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M11" t="str">
         <f ca="1">'mitten_rule-30'!N11</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N11" t="str">
         <f ca="1">'mitten_rule-30'!O11</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O11" t="str">
         <f ca="1">'mitten_rule-30'!P11</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P11" t="str">
         <f ca="1">'mitten_rule-30'!Q11</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q11" t="str">
         <f ca="1">'mitten_rule-30'!R11</f>
@@ -7373,7 +7152,7 @@
       </c>
       <c r="S11" t="str">
         <f ca="1">'mitten_rule-30'!T11</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T11" t="str">
         <f ca="1">'mitten_rule-30'!U11</f>
@@ -7381,18 +7160,18 @@
       </c>
       <c r="U11" t="str">
         <f ca="1">'mitten_rule-30'!V11</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V11" t="str">
+        <f>'mitten_rule-30'!W11</f>
+        <v>MC</v>
+      </c>
+      <c r="W11" t="str">
         <f>'mitten_rule-30'!X11</f>
-        <v>MC</v>
-      </c>
-      <c r="W11" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X11" t="str">
         <f>'mitten_rule-30'!Y11</f>
-        <v>C2</v>
-      </c>
-      <c r="X11" t="str">
-        <f>'mitten_rule-30'!Z11</f>
         <v>MC</v>
       </c>
     </row>
@@ -7403,11 +7182,11 @@
       </c>
       <c r="B12" t="str">
         <f ca="1">'mitten_rule-30'!C12</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C12" t="str">
         <f ca="1">'mitten_rule-30'!D12</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D12" t="str">
         <f ca="1">'mitten_rule-30'!E12</f>
@@ -7423,39 +7202,39 @@
       </c>
       <c r="G12" t="str">
         <f ca="1">'mitten_rule-30'!H12</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H12" t="str">
         <f ca="1">'mitten_rule-30'!I12</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I12" t="str">
         <f ca="1">'mitten_rule-30'!J12</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J12" t="str">
         <f ca="1">'mitten_rule-30'!K12</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K12" t="str">
         <f ca="1">'mitten_rule-30'!L12</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L12" t="str">
         <f ca="1">'mitten_rule-30'!M12</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M12" t="str">
         <f ca="1">'mitten_rule-30'!N12</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N12" t="str">
         <f ca="1">'mitten_rule-30'!O12</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O12" t="str">
         <f ca="1">'mitten_rule-30'!P12</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P12" t="str">
         <f ca="1">'mitten_rule-30'!Q12</f>
@@ -7471,33 +7250,33 @@
       </c>
       <c r="S12" t="str">
         <f ca="1">'mitten_rule-30'!T12</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T12" t="str">
         <f ca="1">'mitten_rule-30'!U12</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U12" t="str">
         <f ca="1">'mitten_rule-30'!V12</f>
         <v>C1</v>
       </c>
       <c r="V12" t="str">
+        <f>'mitten_rule-30'!W12</f>
+        <v>C2</v>
+      </c>
+      <c r="W12" t="str">
         <f>'mitten_rule-30'!X12</f>
         <v>C2</v>
       </c>
-      <c r="W12" t="str">
+      <c r="X12" t="str">
         <f>'mitten_rule-30'!Y12</f>
-        <v>C2</v>
-      </c>
-      <c r="X12" t="str">
-        <f>'mitten_rule-30'!Z12</f>
         <v>C2</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f ca="1">'mitten_rule-30'!B13</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="B13" t="str">
         <f ca="1">'mitten_rule-30'!C13</f>
@@ -7513,7 +7292,7 @@
       </c>
       <c r="E13" t="str">
         <f ca="1">'mitten_rule-30'!F13</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F13" t="str">
         <f ca="1">'mitten_rule-30'!G13</f>
@@ -7525,31 +7304,31 @@
       </c>
       <c r="H13" t="str">
         <f ca="1">'mitten_rule-30'!I13</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I13" t="str">
         <f ca="1">'mitten_rule-30'!J13</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J13" t="str">
         <f ca="1">'mitten_rule-30'!K13</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K13" t="str">
         <f ca="1">'mitten_rule-30'!L13</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L13" t="str">
         <f ca="1">'mitten_rule-30'!M13</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M13" t="str">
         <f ca="1">'mitten_rule-30'!N13</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N13" t="str">
         <f ca="1">'mitten_rule-30'!O13</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O13" t="str">
         <f ca="1">'mitten_rule-30'!P13</f>
@@ -7561,7 +7340,7 @@
       </c>
       <c r="Q13" t="str">
         <f ca="1">'mitten_rule-30'!R13</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R13" t="str">
         <f ca="1">'mitten_rule-30'!S13</f>
@@ -7577,18 +7356,18 @@
       </c>
       <c r="U13" t="str">
         <f ca="1">'mitten_rule-30'!V13</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V13" t="str">
+        <f>'mitten_rule-30'!W13</f>
+        <v>MC</v>
+      </c>
+      <c r="W13" t="str">
         <f>'mitten_rule-30'!X13</f>
-        <v>MC</v>
-      </c>
-      <c r="W13" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X13" t="str">
         <f>'mitten_rule-30'!Y13</f>
-        <v>C2</v>
-      </c>
-      <c r="X13" t="str">
-        <f>'mitten_rule-30'!Z13</f>
         <v>MC</v>
       </c>
     </row>
@@ -7603,7 +7382,7 @@
       </c>
       <c r="C14" t="str">
         <f ca="1">'mitten_rule-30'!D14</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D14" t="str">
         <f ca="1">'mitten_rule-30'!E14</f>
@@ -7611,7 +7390,7 @@
       </c>
       <c r="E14" t="str">
         <f ca="1">'mitten_rule-30'!F14</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F14" t="str">
         <f ca="1">'mitten_rule-30'!G14</f>
@@ -7627,23 +7406,23 @@
       </c>
       <c r="I14" t="str">
         <f ca="1">'mitten_rule-30'!J14</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J14" t="str">
         <f ca="1">'mitten_rule-30'!K14</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K14" t="str">
         <f ca="1">'mitten_rule-30'!L14</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L14" t="str">
         <f ca="1">'mitten_rule-30'!M14</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M14" t="str">
         <f ca="1">'mitten_rule-30'!N14</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N14" t="str">
         <f ca="1">'mitten_rule-30'!O14</f>
@@ -7659,7 +7438,7 @@
       </c>
       <c r="Q14" t="str">
         <f ca="1">'mitten_rule-30'!R14</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R14" t="str">
         <f ca="1">'mitten_rule-30'!S14</f>
@@ -7667,7 +7446,7 @@
       </c>
       <c r="S14" t="str">
         <f ca="1">'mitten_rule-30'!T14</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T14" t="str">
         <f ca="1">'mitten_rule-30'!U14</f>
@@ -7678,15 +7457,15 @@
         <v>C1</v>
       </c>
       <c r="V14" t="str">
+        <f>'mitten_rule-30'!W14</f>
+        <v>MC</v>
+      </c>
+      <c r="W14" t="str">
         <f>'mitten_rule-30'!X14</f>
-        <v>MC</v>
-      </c>
-      <c r="W14" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X14" t="str">
         <f>'mitten_rule-30'!Y14</f>
-        <v>C2</v>
-      </c>
-      <c r="X14" t="str">
-        <f>'mitten_rule-30'!Z14</f>
         <v>MC</v>
       </c>
     </row>
@@ -7701,15 +7480,15 @@
       </c>
       <c r="C15" t="str">
         <f ca="1">'mitten_rule-30'!D15</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D15" t="str">
         <f ca="1">'mitten_rule-30'!E15</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E15" t="str">
         <f ca="1">'mitten_rule-30'!F15</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F15" t="str">
         <f ca="1">'mitten_rule-30'!G15</f>
@@ -7717,7 +7496,7 @@
       </c>
       <c r="G15" t="str">
         <f ca="1">'mitten_rule-30'!H15</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H15" t="str">
         <f ca="1">'mitten_rule-30'!I15</f>
@@ -7729,15 +7508,15 @@
       </c>
       <c r="J15" t="str">
         <f ca="1">'mitten_rule-30'!K15</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K15" t="str">
         <f ca="1">'mitten_rule-30'!L15</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L15" t="str">
         <f ca="1">'mitten_rule-30'!M15</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M15" t="str">
         <f ca="1">'mitten_rule-30'!N15</f>
@@ -7749,7 +7528,7 @@
       </c>
       <c r="O15" t="str">
         <f ca="1">'mitten_rule-30'!P15</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P15" t="str">
         <f ca="1">'mitten_rule-30'!Q15</f>
@@ -7757,15 +7536,15 @@
       </c>
       <c r="Q15" t="str">
         <f ca="1">'mitten_rule-30'!R15</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R15" t="str">
         <f ca="1">'mitten_rule-30'!S15</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S15" t="str">
         <f ca="1">'mitten_rule-30'!T15</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T15" t="str">
         <f ca="1">'mitten_rule-30'!U15</f>
@@ -7776,15 +7555,15 @@
         <v>MC</v>
       </c>
       <c r="V15" t="str">
+        <f>'mitten_rule-30'!W15</f>
+        <v>C2</v>
+      </c>
+      <c r="W15" t="str">
         <f>'mitten_rule-30'!X15</f>
         <v>C2</v>
       </c>
-      <c r="W15" t="str">
+      <c r="X15" t="str">
         <f>'mitten_rule-30'!Y15</f>
-        <v>C2</v>
-      </c>
-      <c r="X15" t="str">
-        <f>'mitten_rule-30'!Z15</f>
         <v>C2</v>
       </c>
     </row>
@@ -7803,7 +7582,7 @@
       </c>
       <c r="D16" t="str">
         <f ca="1">'mitten_rule-30'!E16</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E16" t="str">
         <f ca="1">'mitten_rule-30'!F16</f>
@@ -7811,11 +7590,11 @@
       </c>
       <c r="F16" t="str">
         <f ca="1">'mitten_rule-30'!G16</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G16" t="str">
         <f ca="1">'mitten_rule-30'!H16</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H16" t="str">
         <f ca="1">'mitten_rule-30'!I16</f>
@@ -7831,7 +7610,7 @@
       </c>
       <c r="K16" t="str">
         <f ca="1">'mitten_rule-30'!L16</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L16" t="str">
         <f ca="1">'mitten_rule-30'!M16</f>
@@ -7847,11 +7626,11 @@
       </c>
       <c r="O16" t="str">
         <f ca="1">'mitten_rule-30'!P16</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P16" t="str">
         <f ca="1">'mitten_rule-30'!Q16</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q16" t="str">
         <f ca="1">'mitten_rule-30'!R16</f>
@@ -7859,7 +7638,7 @@
       </c>
       <c r="R16" t="str">
         <f ca="1">'mitten_rule-30'!S16</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S16" t="str">
         <f ca="1">'mitten_rule-30'!T16</f>
@@ -7874,15 +7653,15 @@
         <v>C1</v>
       </c>
       <c r="V16" t="str">
+        <f>'mitten_rule-30'!W16</f>
+        <v>MC</v>
+      </c>
+      <c r="W16" t="str">
         <f>'mitten_rule-30'!X16</f>
-        <v>MC</v>
-      </c>
-      <c r="W16" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X16" t="str">
         <f>'mitten_rule-30'!Y16</f>
-        <v>C2</v>
-      </c>
-      <c r="X16" t="str">
-        <f>'mitten_rule-30'!Z16</f>
         <v>MC</v>
       </c>
     </row>
@@ -7893,7 +7672,7 @@
       </c>
       <c r="B17" t="str">
         <f ca="1">'mitten_rule-30'!C17</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C17" t="str">
         <f ca="1">'mitten_rule-30'!D17</f>
@@ -7901,11 +7680,11 @@
       </c>
       <c r="D17" t="str">
         <f ca="1">'mitten_rule-30'!E17</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E17" t="str">
         <f ca="1">'mitten_rule-30'!F17</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F17" t="str">
         <f ca="1">'mitten_rule-30'!G17</f>
@@ -7921,7 +7700,7 @@
       </c>
       <c r="I17" t="str">
         <f ca="1">'mitten_rule-30'!J17</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J17" t="str">
         <f ca="1">'mitten_rule-30'!K17</f>
@@ -7929,7 +7708,7 @@
       </c>
       <c r="K17" t="str">
         <f ca="1">'mitten_rule-30'!L17</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L17" t="str">
         <f ca="1">'mitten_rule-30'!M17</f>
@@ -7937,7 +7716,7 @@
       </c>
       <c r="M17" t="str">
         <f ca="1">'mitten_rule-30'!N17</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N17" t="str">
         <f ca="1">'mitten_rule-30'!O17</f>
@@ -7953,11 +7732,11 @@
       </c>
       <c r="Q17" t="str">
         <f ca="1">'mitten_rule-30'!R17</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R17" t="str">
         <f ca="1">'mitten_rule-30'!S17</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S17" t="str">
         <f ca="1">'mitten_rule-30'!T17</f>
@@ -7965,37 +7744,37 @@
       </c>
       <c r="T17" t="str">
         <f ca="1">'mitten_rule-30'!U17</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U17" t="str">
         <f ca="1">'mitten_rule-30'!V17</f>
         <v>MC</v>
       </c>
       <c r="V17" t="str">
+        <f>'mitten_rule-30'!W17</f>
+        <v>MC</v>
+      </c>
+      <c r="W17" t="str">
         <f>'mitten_rule-30'!X17</f>
-        <v>MC</v>
-      </c>
-      <c r="W17" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X17" t="str">
         <f>'mitten_rule-30'!Y17</f>
-        <v>C2</v>
-      </c>
-      <c r="X17" t="str">
-        <f>'mitten_rule-30'!Z17</f>
         <v>MC</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f ca="1">'mitten_rule-30'!B18</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="B18" t="str">
         <f ca="1">'mitten_rule-30'!C18</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C18" t="str">
         <f ca="1">'mitten_rule-30'!D18</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D18" t="str">
         <f ca="1">'mitten_rule-30'!E18</f>
@@ -8011,7 +7790,7 @@
       </c>
       <c r="G18" t="str">
         <f ca="1">'mitten_rule-30'!H18</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H18" t="str">
         <f ca="1">'mitten_rule-30'!I18</f>
@@ -8019,23 +7798,23 @@
       </c>
       <c r="I18" t="str">
         <f ca="1">'mitten_rule-30'!J18</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J18" t="str">
         <f ca="1">'mitten_rule-30'!K18</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K18" t="str">
         <f ca="1">'mitten_rule-30'!L18</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L18" t="str">
         <f ca="1">'mitten_rule-30'!M18</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M18" t="str">
         <f ca="1">'mitten_rule-30'!N18</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N18" t="str">
         <f ca="1">'mitten_rule-30'!O18</f>
@@ -8043,7 +7822,7 @@
       </c>
       <c r="O18" t="str">
         <f ca="1">'mitten_rule-30'!P18</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P18" t="str">
         <f ca="1">'mitten_rule-30'!Q18</f>
@@ -8059,37 +7838,37 @@
       </c>
       <c r="S18" t="str">
         <f ca="1">'mitten_rule-30'!T18</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T18" t="str">
         <f ca="1">'mitten_rule-30'!U18</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U18" t="str">
         <f ca="1">'mitten_rule-30'!V18</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V18" t="str">
+        <f>'mitten_rule-30'!W18</f>
+        <v>C2</v>
+      </c>
+      <c r="W18" t="str">
         <f>'mitten_rule-30'!X18</f>
         <v>C2</v>
       </c>
-      <c r="W18" t="str">
+      <c r="X18" t="str">
         <f>'mitten_rule-30'!Y18</f>
-        <v>C2</v>
-      </c>
-      <c r="X18" t="str">
-        <f>'mitten_rule-30'!Z18</f>
         <v>C2</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f ca="1">'mitten_rule-30'!B19</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="B19" t="str">
         <f ca="1">'mitten_rule-30'!C19</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C19" t="str">
         <f ca="1">'mitten_rule-30'!D19</f>
@@ -8101,7 +7880,7 @@
       </c>
       <c r="E19" t="str">
         <f ca="1">'mitten_rule-30'!F19</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F19" t="str">
         <f ca="1">'mitten_rule-30'!G19</f>
@@ -8109,11 +7888,11 @@
       </c>
       <c r="G19" t="str">
         <f ca="1">'mitten_rule-30'!H19</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H19" t="str">
         <f ca="1">'mitten_rule-30'!I19</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I19" t="str">
         <f ca="1">'mitten_rule-30'!J19</f>
@@ -8121,15 +7900,15 @@
       </c>
       <c r="J19" t="str">
         <f ca="1">'mitten_rule-30'!K19</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K19" t="str">
         <f ca="1">'mitten_rule-30'!L19</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L19" t="str">
         <f ca="1">'mitten_rule-30'!M19</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M19" t="str">
         <f ca="1">'mitten_rule-30'!N19</f>
@@ -8137,11 +7916,11 @@
       </c>
       <c r="N19" t="str">
         <f ca="1">'mitten_rule-30'!O19</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O19" t="str">
         <f ca="1">'mitten_rule-30'!P19</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P19" t="str">
         <f ca="1">'mitten_rule-30'!Q19</f>
@@ -8149,7 +7928,7 @@
       </c>
       <c r="Q19" t="str">
         <f ca="1">'mitten_rule-30'!R19</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R19" t="str">
         <f ca="1">'mitten_rule-30'!S19</f>
@@ -8161,29 +7940,29 @@
       </c>
       <c r="T19" t="str">
         <f ca="1">'mitten_rule-30'!U19</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U19" t="str">
         <f ca="1">'mitten_rule-30'!V19</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V19" t="str">
+        <f>'mitten_rule-30'!W19</f>
+        <v>MC</v>
+      </c>
+      <c r="W19" t="str">
         <f>'mitten_rule-30'!X19</f>
-        <v>MC</v>
-      </c>
-      <c r="W19" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X19" t="str">
         <f>'mitten_rule-30'!Y19</f>
-        <v>C2</v>
-      </c>
-      <c r="X19" t="str">
-        <f>'mitten_rule-30'!Z19</f>
         <v>MC</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f ca="1">'mitten_rule-30'!B20</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="B20" t="str">
         <f ca="1">'mitten_rule-30'!C20</f>
@@ -8199,11 +7978,11 @@
       </c>
       <c r="E20" t="str">
         <f ca="1">'mitten_rule-30'!F20</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F20" t="str">
         <f ca="1">'mitten_rule-30'!G20</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G20" t="str">
         <f ca="1">'mitten_rule-30'!H20</f>
@@ -8215,7 +7994,7 @@
       </c>
       <c r="I20" t="str">
         <f ca="1">'mitten_rule-30'!J20</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J20" t="str">
         <f ca="1">'mitten_rule-30'!K20</f>
@@ -8223,7 +8002,7 @@
       </c>
       <c r="K20" t="str">
         <f ca="1">'mitten_rule-30'!L20</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L20" t="str">
         <f ca="1">'mitten_rule-30'!M20</f>
@@ -8231,7 +8010,7 @@
       </c>
       <c r="M20" t="str">
         <f ca="1">'mitten_rule-30'!N20</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N20" t="str">
         <f ca="1">'mitten_rule-30'!O20</f>
@@ -8243,11 +8022,11 @@
       </c>
       <c r="P20" t="str">
         <f ca="1">'mitten_rule-30'!Q20</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q20" t="str">
         <f ca="1">'mitten_rule-30'!R20</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R20" t="str">
         <f ca="1">'mitten_rule-30'!S20</f>
@@ -8263,18 +8042,18 @@
       </c>
       <c r="U20" t="str">
         <f ca="1">'mitten_rule-30'!V20</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V20" t="str">
+        <f>'mitten_rule-30'!W20</f>
+        <v>MC</v>
+      </c>
+      <c r="W20" t="str">
         <f>'mitten_rule-30'!X20</f>
-        <v>MC</v>
-      </c>
-      <c r="W20" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X20" t="str">
         <f>'mitten_rule-30'!Y20</f>
-        <v>C2</v>
-      </c>
-      <c r="X20" t="str">
-        <f>'mitten_rule-30'!Z20</f>
         <v>MC</v>
       </c>
     </row>
@@ -8289,7 +8068,7 @@
       </c>
       <c r="C21" t="str">
         <f ca="1">'mitten_rule-30'!D21</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D21" t="str">
         <f ca="1">'mitten_rule-30'!E21</f>
@@ -8313,23 +8092,23 @@
       </c>
       <c r="I21" t="str">
         <f ca="1">'mitten_rule-30'!J21</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J21" t="str">
         <f ca="1">'mitten_rule-30'!K21</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K21" t="str">
         <f ca="1">'mitten_rule-30'!L21</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L21" t="str">
         <f ca="1">'mitten_rule-30'!M21</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M21" t="str">
         <f ca="1">'mitten_rule-30'!N21</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N21" t="str">
         <f ca="1">'mitten_rule-30'!O21</f>
@@ -8353,7 +8132,7 @@
       </c>
       <c r="S21" t="str">
         <f ca="1">'mitten_rule-30'!T21</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T21" t="str">
         <f ca="1">'mitten_rule-30'!U21</f>
@@ -8364,15 +8143,15 @@
         <v>MC</v>
       </c>
       <c r="V21" t="str">
+        <f>'mitten_rule-30'!W21</f>
+        <v>C2</v>
+      </c>
+      <c r="W21" t="str">
         <f>'mitten_rule-30'!X21</f>
         <v>C2</v>
       </c>
-      <c r="W21" t="str">
+      <c r="X21" t="str">
         <f>'mitten_rule-30'!Y21</f>
-        <v>C2</v>
-      </c>
-      <c r="X21" t="str">
-        <f>'mitten_rule-30'!Z21</f>
         <v>C2</v>
       </c>
     </row>
@@ -8387,7 +8166,7 @@
       </c>
       <c r="C22" t="str">
         <f ca="1">'mitten_rule-30'!D22</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D22" t="str">
         <f ca="1">'mitten_rule-30'!E22</f>
@@ -8395,15 +8174,15 @@
       </c>
       <c r="E22" t="str">
         <f ca="1">'mitten_rule-30'!F22</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F22" t="str">
         <f ca="1">'mitten_rule-30'!G22</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G22" t="str">
         <f ca="1">'mitten_rule-30'!H22</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H22" t="str">
         <f ca="1">'mitten_rule-30'!I22</f>
@@ -8415,15 +8194,15 @@
       </c>
       <c r="J22" t="str">
         <f ca="1">'mitten_rule-30'!K22</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K22" t="str">
         <f ca="1">'mitten_rule-30'!L22</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L22" t="str">
         <f ca="1">'mitten_rule-30'!M22</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M22" t="str">
         <f ca="1">'mitten_rule-30'!N22</f>
@@ -8435,15 +8214,15 @@
       </c>
       <c r="O22" t="str">
         <f ca="1">'mitten_rule-30'!P22</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P22" t="str">
         <f ca="1">'mitten_rule-30'!Q22</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q22" t="str">
         <f ca="1">'mitten_rule-30'!R22</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R22" t="str">
         <f ca="1">'mitten_rule-30'!S22</f>
@@ -8451,7 +8230,7 @@
       </c>
       <c r="S22" t="str">
         <f ca="1">'mitten_rule-30'!T22</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T22" t="str">
         <f ca="1">'mitten_rule-30'!U22</f>
@@ -8462,15 +8241,15 @@
         <v>C1</v>
       </c>
       <c r="V22" t="str">
+        <f>'mitten_rule-30'!W22</f>
+        <v>MC</v>
+      </c>
+      <c r="W22" t="str">
         <f>'mitten_rule-30'!X22</f>
-        <v>MC</v>
-      </c>
-      <c r="W22" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X22" t="str">
         <f>'mitten_rule-30'!Y22</f>
-        <v>C2</v>
-      </c>
-      <c r="X22" t="str">
-        <f>'mitten_rule-30'!Z22</f>
         <v>MC</v>
       </c>
     </row>
@@ -8485,11 +8264,11 @@
       </c>
       <c r="C23" t="str">
         <f ca="1">'mitten_rule-30'!D23</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D23" t="str">
         <f ca="1">'mitten_rule-30'!E23</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E23" t="str">
         <f ca="1">'mitten_rule-30'!F23</f>
@@ -8497,7 +8276,7 @@
       </c>
       <c r="F23" t="str">
         <f ca="1">'mitten_rule-30'!G23</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G23" t="str">
         <f ca="1">'mitten_rule-30'!H23</f>
@@ -8517,7 +8296,7 @@
       </c>
       <c r="K23" t="str">
         <f ca="1">'mitten_rule-30'!L23</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L23" t="str">
         <f ca="1">'mitten_rule-30'!M23</f>
@@ -8537,7 +8316,7 @@
       </c>
       <c r="P23" t="str">
         <f ca="1">'mitten_rule-30'!Q23</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q23" t="str">
         <f ca="1">'mitten_rule-30'!R23</f>
@@ -8545,11 +8324,11 @@
       </c>
       <c r="R23" t="str">
         <f ca="1">'mitten_rule-30'!S23</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S23" t="str">
         <f ca="1">'mitten_rule-30'!T23</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T23" t="str">
         <f ca="1">'mitten_rule-30'!U23</f>
@@ -8560,15 +8339,15 @@
         <v>MC</v>
       </c>
       <c r="V23" t="str">
+        <f>'mitten_rule-30'!W23</f>
+        <v>MC</v>
+      </c>
+      <c r="W23" t="str">
         <f>'mitten_rule-30'!X23</f>
-        <v>MC</v>
-      </c>
-      <c r="W23" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X23" t="str">
         <f>'mitten_rule-30'!Y23</f>
-        <v>C2</v>
-      </c>
-      <c r="X23" t="str">
-        <f>'mitten_rule-30'!Z23</f>
         <v>MC</v>
       </c>
     </row>
@@ -8591,11 +8370,11 @@
       </c>
       <c r="E24" t="str">
         <f ca="1">'mitten_rule-30'!F24</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F24" t="str">
         <f ca="1">'mitten_rule-30'!G24</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G24" t="str">
         <f ca="1">'mitten_rule-30'!H24</f>
@@ -8603,11 +8382,11 @@
       </c>
       <c r="H24" t="str">
         <f ca="1">'mitten_rule-30'!I24</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I24" t="str">
         <f ca="1">'mitten_rule-30'!J24</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J24" t="str">
         <f ca="1">'mitten_rule-30'!K24</f>
@@ -8615,7 +8394,7 @@
       </c>
       <c r="K24" t="str">
         <f ca="1">'mitten_rule-30'!L24</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L24" t="str">
         <f ca="1">'mitten_rule-30'!M24</f>
@@ -8623,11 +8402,11 @@
       </c>
       <c r="M24" t="str">
         <f ca="1">'mitten_rule-30'!N24</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N24" t="str">
         <f ca="1">'mitten_rule-30'!O24</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O24" t="str">
         <f ca="1">'mitten_rule-30'!P24</f>
@@ -8635,11 +8414,11 @@
       </c>
       <c r="P24" t="str">
         <f ca="1">'mitten_rule-30'!Q24</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q24" t="str">
         <f ca="1">'mitten_rule-30'!R24</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R24" t="str">
         <f ca="1">'mitten_rule-30'!S24</f>
@@ -8658,15 +8437,15 @@
         <v>C1</v>
       </c>
       <c r="V24" t="str">
+        <f>'mitten_rule-30'!W24</f>
+        <v>C2</v>
+      </c>
+      <c r="W24" t="str">
         <f>'mitten_rule-30'!X24</f>
         <v>C2</v>
       </c>
-      <c r="W24" t="str">
+      <c r="X24" t="str">
         <f>'mitten_rule-30'!Y24</f>
-        <v>C2</v>
-      </c>
-      <c r="X24" t="str">
-        <f>'mitten_rule-30'!Z24</f>
         <v>C2</v>
       </c>
     </row>
@@ -8677,11 +8456,11 @@
       </c>
       <c r="B25" t="str">
         <f ca="1">'mitten_rule-30'!C25</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C25" t="str">
         <f ca="1">'mitten_rule-30'!D25</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D25" t="str">
         <f ca="1">'mitten_rule-30'!E25</f>
@@ -8697,7 +8476,7 @@
       </c>
       <c r="G25" t="str">
         <f ca="1">'mitten_rule-30'!H25</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H25" t="str">
         <f ca="1">'mitten_rule-30'!I25</f>
@@ -8709,15 +8488,15 @@
       </c>
       <c r="J25" t="str">
         <f ca="1">'mitten_rule-30'!K25</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K25" t="str">
         <f ca="1">'mitten_rule-30'!L25</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L25" t="str">
         <f ca="1">'mitten_rule-30'!M25</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M25" t="str">
         <f ca="1">'mitten_rule-30'!N25</f>
@@ -8729,7 +8508,7 @@
       </c>
       <c r="O25" t="str">
         <f ca="1">'mitten_rule-30'!P25</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P25" t="str">
         <f ca="1">'mitten_rule-30'!Q25</f>
@@ -8745,33 +8524,33 @@
       </c>
       <c r="S25" t="str">
         <f ca="1">'mitten_rule-30'!T25</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T25" t="str">
         <f ca="1">'mitten_rule-30'!U25</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U25" t="str">
         <f ca="1">'mitten_rule-30'!V25</f>
         <v>MC</v>
       </c>
       <c r="V25" t="str">
+        <f>'mitten_rule-30'!W25</f>
+        <v>MC</v>
+      </c>
+      <c r="W25" t="str">
         <f>'mitten_rule-30'!X25</f>
-        <v>MC</v>
-      </c>
-      <c r="W25" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X25" t="str">
         <f>'mitten_rule-30'!Y25</f>
-        <v>C2</v>
-      </c>
-      <c r="X25" t="str">
-        <f>'mitten_rule-30'!Z25</f>
         <v>MC</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f ca="1">'mitten_rule-30'!B26</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="B26" t="str">
         <f ca="1">'mitten_rule-30'!C26</f>
@@ -8787,7 +8566,7 @@
       </c>
       <c r="E26" t="str">
         <f ca="1">'mitten_rule-30'!F26</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F26" t="str">
         <f ca="1">'mitten_rule-30'!G26</f>
@@ -8795,7 +8574,7 @@
       </c>
       <c r="G26" t="str">
         <f ca="1">'mitten_rule-30'!H26</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H26" t="str">
         <f ca="1">'mitten_rule-30'!I26</f>
@@ -8811,7 +8590,7 @@
       </c>
       <c r="K26" t="str">
         <f ca="1">'mitten_rule-30'!L26</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L26" t="str">
         <f ca="1">'mitten_rule-30'!M26</f>
@@ -8827,7 +8606,7 @@
       </c>
       <c r="O26" t="str">
         <f ca="1">'mitten_rule-30'!P26</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P26" t="str">
         <f ca="1">'mitten_rule-30'!Q26</f>
@@ -8835,7 +8614,7 @@
       </c>
       <c r="Q26" t="str">
         <f ca="1">'mitten_rule-30'!R26</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R26" t="str">
         <f ca="1">'mitten_rule-30'!S26</f>
@@ -8851,18 +8630,18 @@
       </c>
       <c r="U26" t="str">
         <f ca="1">'mitten_rule-30'!V26</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V26" t="str">
+        <f>'mitten_rule-30'!W26</f>
+        <v>MC</v>
+      </c>
+      <c r="W26" t="str">
         <f>'mitten_rule-30'!X26</f>
-        <v>MC</v>
-      </c>
-      <c r="W26" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X26" t="str">
         <f>'mitten_rule-30'!Y26</f>
-        <v>C2</v>
-      </c>
-      <c r="X26" t="str">
-        <f>'mitten_rule-30'!Z26</f>
         <v>MC</v>
       </c>
     </row>
@@ -8877,7 +8656,7 @@
       </c>
       <c r="C27" t="str">
         <f ca="1">'mitten_rule-30'!D27</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D27" t="str">
         <f ca="1">'mitten_rule-30'!E27</f>
@@ -8885,15 +8664,15 @@
       </c>
       <c r="E27" t="str">
         <f ca="1">'mitten_rule-30'!F27</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F27" t="str">
         <f ca="1">'mitten_rule-30'!G27</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G27" t="str">
         <f ca="1">'mitten_rule-30'!H27</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H27" t="str">
         <f ca="1">'mitten_rule-30'!I27</f>
@@ -8901,7 +8680,7 @@
       </c>
       <c r="I27" t="str">
         <f ca="1">'mitten_rule-30'!J27</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J27" t="str">
         <f ca="1">'mitten_rule-30'!K27</f>
@@ -8909,7 +8688,7 @@
       </c>
       <c r="K27" t="str">
         <f ca="1">'mitten_rule-30'!L27</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L27" t="str">
         <f ca="1">'mitten_rule-30'!M27</f>
@@ -8917,7 +8696,7 @@
       </c>
       <c r="M27" t="str">
         <f ca="1">'mitten_rule-30'!N27</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N27" t="str">
         <f ca="1">'mitten_rule-30'!O27</f>
@@ -8925,15 +8704,15 @@
       </c>
       <c r="O27" t="str">
         <f ca="1">'mitten_rule-30'!P27</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P27" t="str">
         <f ca="1">'mitten_rule-30'!Q27</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q27" t="str">
         <f ca="1">'mitten_rule-30'!R27</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R27" t="str">
         <f ca="1">'mitten_rule-30'!S27</f>
@@ -8941,7 +8720,7 @@
       </c>
       <c r="S27" t="str">
         <f ca="1">'mitten_rule-30'!T27</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T27" t="str">
         <f ca="1">'mitten_rule-30'!U27</f>
@@ -8952,15 +8731,15 @@
         <v>MC</v>
       </c>
       <c r="V27" t="str">
+        <f>'mitten_rule-30'!W27</f>
+        <v>C2</v>
+      </c>
+      <c r="W27" t="str">
         <f>'mitten_rule-30'!X27</f>
         <v>C2</v>
       </c>
-      <c r="W27" t="str">
+      <c r="X27" t="str">
         <f>'mitten_rule-30'!Y27</f>
-        <v>C2</v>
-      </c>
-      <c r="X27" t="str">
-        <f>'mitten_rule-30'!Z27</f>
         <v>C2</v>
       </c>
     </row>
@@ -8975,11 +8754,11 @@
       </c>
       <c r="C28" t="str">
         <f ca="1">'mitten_rule-30'!D28</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D28" t="str">
         <f ca="1">'mitten_rule-30'!E28</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E28" t="str">
         <f ca="1">'mitten_rule-30'!F28</f>
@@ -8987,7 +8766,7 @@
       </c>
       <c r="F28" t="str">
         <f ca="1">'mitten_rule-30'!G28</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G28" t="str">
         <f ca="1">'mitten_rule-30'!H28</f>
@@ -8995,31 +8774,31 @@
       </c>
       <c r="H28" t="str">
         <f ca="1">'mitten_rule-30'!I28</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I28" t="str">
         <f ca="1">'mitten_rule-30'!J28</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J28" t="str">
         <f ca="1">'mitten_rule-30'!K28</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K28" t="str">
         <f ca="1">'mitten_rule-30'!L28</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L28" t="str">
         <f ca="1">'mitten_rule-30'!M28</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M28" t="str">
         <f ca="1">'mitten_rule-30'!N28</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N28" t="str">
         <f ca="1">'mitten_rule-30'!O28</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O28" t="str">
         <f ca="1">'mitten_rule-30'!P28</f>
@@ -9027,7 +8806,7 @@
       </c>
       <c r="P28" t="str">
         <f ca="1">'mitten_rule-30'!Q28</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q28" t="str">
         <f ca="1">'mitten_rule-30'!R28</f>
@@ -9035,11 +8814,11 @@
       </c>
       <c r="R28" t="str">
         <f ca="1">'mitten_rule-30'!S28</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S28" t="str">
         <f ca="1">'mitten_rule-30'!T28</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T28" t="str">
         <f ca="1">'mitten_rule-30'!U28</f>
@@ -9050,15 +8829,15 @@
         <v>C1</v>
       </c>
       <c r="V28" t="str">
+        <f>'mitten_rule-30'!W28</f>
+        <v>MC</v>
+      </c>
+      <c r="W28" t="str">
         <f>'mitten_rule-30'!X28</f>
-        <v>MC</v>
-      </c>
-      <c r="W28" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X28" t="str">
         <f>'mitten_rule-30'!Y28</f>
-        <v>C2</v>
-      </c>
-      <c r="X28" t="str">
-        <f>'mitten_rule-30'!Z28</f>
         <v>MC</v>
       </c>
     </row>
@@ -9081,15 +8860,15 @@
       </c>
       <c r="E29" t="str">
         <f ca="1">'mitten_rule-30'!F29</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F29" t="str">
         <f ca="1">'mitten_rule-30'!G29</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G29" t="str">
         <f ca="1">'mitten_rule-30'!H29</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H29" t="str">
         <f ca="1">'mitten_rule-30'!I29</f>
@@ -9097,23 +8876,23 @@
       </c>
       <c r="I29" t="str">
         <f ca="1">'mitten_rule-30'!J29</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J29" t="str">
         <f ca="1">'mitten_rule-30'!K29</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K29" t="str">
         <f ca="1">'mitten_rule-30'!L29</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L29" t="str">
         <f ca="1">'mitten_rule-30'!M29</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M29" t="str">
         <f ca="1">'mitten_rule-30'!N29</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N29" t="str">
         <f ca="1">'mitten_rule-30'!O29</f>
@@ -9121,15 +8900,15 @@
       </c>
       <c r="O29" t="str">
         <f ca="1">'mitten_rule-30'!P29</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P29" t="str">
         <f ca="1">'mitten_rule-30'!Q29</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q29" t="str">
         <f ca="1">'mitten_rule-30'!R29</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R29" t="str">
         <f ca="1">'mitten_rule-30'!S29</f>
@@ -9148,15 +8927,15 @@
         <v>MC</v>
       </c>
       <c r="V29" t="str">
+        <f>'mitten_rule-30'!W29</f>
+        <v>MC</v>
+      </c>
+      <c r="W29" t="str">
         <f>'mitten_rule-30'!X29</f>
-        <v>MC</v>
-      </c>
-      <c r="W29" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X29" t="str">
         <f>'mitten_rule-30'!Y29</f>
-        <v>C2</v>
-      </c>
-      <c r="X29" t="str">
-        <f>'mitten_rule-30'!Z29</f>
         <v>MC</v>
       </c>
     </row>
@@ -9167,11 +8946,11 @@
       </c>
       <c r="B30" t="str">
         <f ca="1">'mitten_rule-30'!C30</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C30" t="str">
         <f ca="1">'mitten_rule-30'!D30</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D30" t="str">
         <f ca="1">'mitten_rule-30'!E30</f>
@@ -9183,7 +8962,7 @@
       </c>
       <c r="F30" t="str">
         <f ca="1">'mitten_rule-30'!G30</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G30" t="str">
         <f ca="1">'mitten_rule-30'!H30</f>
@@ -9191,7 +8970,7 @@
       </c>
       <c r="H30" t="str">
         <f ca="1">'mitten_rule-30'!I30</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I30" t="str">
         <f ca="1">'mitten_rule-30'!J30</f>
@@ -9199,15 +8978,15 @@
       </c>
       <c r="J30" t="str">
         <f ca="1">'mitten_rule-30'!K30</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K30" t="str">
         <f ca="1">'mitten_rule-30'!L30</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L30" t="str">
         <f ca="1">'mitten_rule-30'!M30</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M30" t="str">
         <f ca="1">'mitten_rule-30'!N30</f>
@@ -9215,7 +8994,7 @@
       </c>
       <c r="N30" t="str">
         <f ca="1">'mitten_rule-30'!O30</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O30" t="str">
         <f ca="1">'mitten_rule-30'!P30</f>
@@ -9223,7 +9002,7 @@
       </c>
       <c r="P30" t="str">
         <f ca="1">'mitten_rule-30'!Q30</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q30" t="str">
         <f ca="1">'mitten_rule-30'!R30</f>
@@ -9235,33 +9014,33 @@
       </c>
       <c r="S30" t="str">
         <f ca="1">'mitten_rule-30'!T30</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T30" t="str">
         <f ca="1">'mitten_rule-30'!U30</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U30" t="str">
         <f ca="1">'mitten_rule-30'!V30</f>
         <v>C1</v>
       </c>
       <c r="V30" t="str">
+        <f>'mitten_rule-30'!W30</f>
+        <v>C2</v>
+      </c>
+      <c r="W30" t="str">
         <f>'mitten_rule-30'!X30</f>
         <v>C2</v>
       </c>
-      <c r="W30" t="str">
+      <c r="X30" t="str">
         <f>'mitten_rule-30'!Y30</f>
-        <v>C2</v>
-      </c>
-      <c r="X30" t="str">
-        <f>'mitten_rule-30'!Z30</f>
         <v>C2</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f ca="1">'mitten_rule-30'!B31</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="B31" t="str">
         <f ca="1">'mitten_rule-30'!C31</f>
@@ -9281,19 +9060,19 @@
       </c>
       <c r="F31" t="str">
         <f ca="1">'mitten_rule-30'!G31</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G31" t="str">
         <f ca="1">'mitten_rule-30'!H31</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H31" t="str">
         <f ca="1">'mitten_rule-30'!I31</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I31" t="str">
         <f ca="1">'mitten_rule-30'!J31</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J31" t="str">
         <f ca="1">'mitten_rule-30'!K31</f>
@@ -9301,7 +9080,7 @@
       </c>
       <c r="K31" t="str">
         <f ca="1">'mitten_rule-30'!L31</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L31" t="str">
         <f ca="1">'mitten_rule-30'!M31</f>
@@ -9309,19 +9088,19 @@
       </c>
       <c r="M31" t="str">
         <f ca="1">'mitten_rule-30'!N31</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N31" t="str">
         <f ca="1">'mitten_rule-30'!O31</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O31" t="str">
         <f ca="1">'mitten_rule-30'!P31</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P31" t="str">
         <f ca="1">'mitten_rule-30'!Q31</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q31" t="str">
         <f ca="1">'mitten_rule-30'!R31</f>
@@ -9341,18 +9120,18 @@
       </c>
       <c r="U31" t="str">
         <f ca="1">'mitten_rule-30'!V31</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V31" t="str">
+        <f>'mitten_rule-30'!W31</f>
+        <v>MC</v>
+      </c>
+      <c r="W31" t="str">
         <f>'mitten_rule-30'!X31</f>
-        <v>MC</v>
-      </c>
-      <c r="W31" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X31" t="str">
         <f>'mitten_rule-30'!Y31</f>
-        <v>C2</v>
-      </c>
-      <c r="X31" t="str">
-        <f>'mitten_rule-30'!Z31</f>
         <v>MC</v>
       </c>
     </row>
@@ -9367,11 +9146,11 @@
       </c>
       <c r="C32" t="str">
         <f ca="1">'mitten_rule-30'!D32</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D32" t="str">
         <f ca="1">'mitten_rule-30'!E32</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E32" t="str">
         <f ca="1">'mitten_rule-30'!F32</f>
@@ -9383,11 +9162,11 @@
       </c>
       <c r="G32" t="str">
         <f ca="1">'mitten_rule-30'!H32</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H32" t="str">
         <f ca="1">'mitten_rule-30'!I32</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I32" t="str">
         <f ca="1">'mitten_rule-30'!J32</f>
@@ -9395,15 +9174,15 @@
       </c>
       <c r="J32" t="str">
         <f ca="1">'mitten_rule-30'!K32</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K32" t="str">
         <f ca="1">'mitten_rule-30'!L32</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L32" t="str">
         <f ca="1">'mitten_rule-30'!M32</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M32" t="str">
         <f ca="1">'mitten_rule-30'!N32</f>
@@ -9411,11 +9190,11 @@
       </c>
       <c r="N32" t="str">
         <f ca="1">'mitten_rule-30'!O32</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O32" t="str">
         <f ca="1">'mitten_rule-30'!P32</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P32" t="str">
         <f ca="1">'mitten_rule-30'!Q32</f>
@@ -9427,11 +9206,11 @@
       </c>
       <c r="R32" t="str">
         <f ca="1">'mitten_rule-30'!S32</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S32" t="str">
         <f ca="1">'mitten_rule-30'!T32</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T32" t="str">
         <f ca="1">'mitten_rule-30'!U32</f>
@@ -9442,15 +9221,15 @@
         <v>C1</v>
       </c>
       <c r="V32" t="str">
+        <f>'mitten_rule-30'!W32</f>
+        <v>MC</v>
+      </c>
+      <c r="W32" t="str">
         <f>'mitten_rule-30'!X32</f>
-        <v>MC</v>
-      </c>
-      <c r="W32" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X32" t="str">
         <f>'mitten_rule-30'!Y32</f>
-        <v>C2</v>
-      </c>
-      <c r="X32" t="str">
-        <f>'mitten_rule-30'!Z32</f>
         <v>MC</v>
       </c>
     </row>
@@ -9497,7 +9276,7 @@
       </c>
       <c r="K33" t="str">
         <f ca="1">'mitten_rule-30'!L33</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L33" t="str">
         <f ca="1">'mitten_rule-30'!M33</f>
@@ -9505,7 +9284,7 @@
       </c>
       <c r="M33" t="str">
         <f ca="1">'mitten_rule-30'!N33</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N33" t="str">
         <f ca="1">'mitten_rule-30'!O33</f>
@@ -9540,15 +9319,15 @@
         <v>MC</v>
       </c>
       <c r="V33" t="str">
+        <f>'mitten_rule-30'!W33</f>
+        <v>C2</v>
+      </c>
+      <c r="W33" t="str">
         <f>'mitten_rule-30'!X33</f>
         <v>C2</v>
       </c>
-      <c r="W33" t="str">
+      <c r="X33" t="str">
         <f>'mitten_rule-30'!Y33</f>
-        <v>C2</v>
-      </c>
-      <c r="X33" t="str">
-        <f>'mitten_rule-30'!Z33</f>
         <v>C2</v>
       </c>
     </row>
@@ -9559,27 +9338,27 @@
       </c>
       <c r="B34" t="str">
         <f ca="1">'mitten_rule-30'!C34</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C34" t="str">
         <f ca="1">'mitten_rule-30'!D34</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D34" t="str">
         <f ca="1">'mitten_rule-30'!E34</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E34" t="str">
         <f ca="1">'mitten_rule-30'!F34</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F34" t="str">
         <f ca="1">'mitten_rule-30'!G34</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G34" t="str">
         <f ca="1">'mitten_rule-30'!H34</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H34" t="str">
         <f ca="1">'mitten_rule-30'!I34</f>
@@ -9587,23 +9366,23 @@
       </c>
       <c r="I34" t="str">
         <f ca="1">'mitten_rule-30'!J34</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J34" t="str">
         <f ca="1">'mitten_rule-30'!K34</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K34" t="str">
         <f ca="1">'mitten_rule-30'!L34</f>
-        <v>MC</v>
+        <v>C1</v>
       </c>
       <c r="L34" t="str">
         <f ca="1">'mitten_rule-30'!M34</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M34" t="str">
         <f ca="1">'mitten_rule-30'!N34</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N34" t="str">
         <f ca="1">'mitten_rule-30'!O34</f>
@@ -9611,49 +9390,49 @@
       </c>
       <c r="O34" t="str">
         <f ca="1">'mitten_rule-30'!P34</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P34" t="str">
         <f ca="1">'mitten_rule-30'!Q34</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q34" t="str">
         <f ca="1">'mitten_rule-30'!R34</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R34" t="str">
         <f ca="1">'mitten_rule-30'!S34</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S34" t="str">
         <f ca="1">'mitten_rule-30'!T34</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T34" t="str">
         <f ca="1">'mitten_rule-30'!U34</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U34" t="str">
         <f ca="1">'mitten_rule-30'!V34</f>
         <v>C1</v>
       </c>
       <c r="V34" t="str">
+        <f>'mitten_rule-30'!W34</f>
+        <v>MC</v>
+      </c>
+      <c r="W34" t="str">
         <f>'mitten_rule-30'!X34</f>
-        <v>MC</v>
-      </c>
-      <c r="W34" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X34" t="str">
         <f>'mitten_rule-30'!Y34</f>
-        <v>C2</v>
-      </c>
-      <c r="X34" t="str">
-        <f>'mitten_rule-30'!Z34</f>
         <v>MC</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f ca="1">'mitten_rule-30'!B35</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="B35" t="str">
         <f ca="1">'mitten_rule-30'!C35</f>
@@ -9661,19 +9440,19 @@
       </c>
       <c r="C35" t="str">
         <f ca="1">'mitten_rule-30'!D35</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D35" t="str">
         <f ca="1">'mitten_rule-30'!E35</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E35" t="str">
         <f ca="1">'mitten_rule-30'!F35</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F35" t="str">
         <f ca="1">'mitten_rule-30'!G35</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G35" t="str">
         <f ca="1">'mitten_rule-30'!H35</f>
@@ -9681,7 +9460,7 @@
       </c>
       <c r="H35" t="str">
         <f ca="1">'mitten_rule-30'!I35</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I35" t="str">
         <f ca="1">'mitten_rule-30'!J35</f>
@@ -9689,15 +9468,15 @@
       </c>
       <c r="J35" t="str">
         <f ca="1">'mitten_rule-30'!K35</f>
-        <v>MC</v>
+        <v>C1</v>
       </c>
       <c r="K35" t="str">
         <f ca="1">'mitten_rule-30'!L35</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L35" t="str">
         <f ca="1">'mitten_rule-30'!M35</f>
-        <v>MC</v>
+        <v>C1</v>
       </c>
       <c r="M35" t="str">
         <f ca="1">'mitten_rule-30'!N35</f>
@@ -9705,7 +9484,7 @@
       </c>
       <c r="N35" t="str">
         <f ca="1">'mitten_rule-30'!O35</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O35" t="str">
         <f ca="1">'mitten_rule-30'!P35</f>
@@ -9713,19 +9492,19 @@
       </c>
       <c r="P35" t="str">
         <f ca="1">'mitten_rule-30'!Q35</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q35" t="str">
         <f ca="1">'mitten_rule-30'!R35</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R35" t="str">
         <f ca="1">'mitten_rule-30'!S35</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S35" t="str">
         <f ca="1">'mitten_rule-30'!T35</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T35" t="str">
         <f ca="1">'mitten_rule-30'!U35</f>
@@ -9733,18 +9512,18 @@
       </c>
       <c r="U35" t="str">
         <f ca="1">'mitten_rule-30'!V35</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V35" t="str">
+        <f>'mitten_rule-30'!W35</f>
+        <v>MC</v>
+      </c>
+      <c r="W35" t="str">
         <f>'mitten_rule-30'!X35</f>
-        <v>MC</v>
-      </c>
-      <c r="W35" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X35" t="str">
         <f>'mitten_rule-30'!Y35</f>
-        <v>C2</v>
-      </c>
-      <c r="X35" t="str">
-        <f>'mitten_rule-30'!Z35</f>
         <v>MC</v>
       </c>
     </row>
@@ -9755,7 +9534,7 @@
       </c>
       <c r="B36" t="str">
         <f ca="1">'mitten_rule-30'!C36</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C36" t="str">
         <f ca="1">'mitten_rule-30'!D36</f>
@@ -9763,11 +9542,11 @@
       </c>
       <c r="D36" t="str">
         <f ca="1">'mitten_rule-30'!E36</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E36" t="str">
         <f ca="1">'mitten_rule-30'!F36</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F36" t="str">
         <f ca="1">'mitten_rule-30'!G36</f>
@@ -9775,11 +9554,11 @@
       </c>
       <c r="G36" t="str">
         <f ca="1">'mitten_rule-30'!H36</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H36" t="str">
         <f ca="1">'mitten_rule-30'!I36</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I36" t="str">
         <f ca="1">'mitten_rule-30'!J36</f>
@@ -9787,15 +9566,15 @@
       </c>
       <c r="J36" t="str">
         <f ca="1">'mitten_rule-30'!K36</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K36" t="str">
         <f ca="1">'mitten_rule-30'!L36</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L36" t="str">
         <f ca="1">'mitten_rule-30'!M36</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M36" t="str">
         <f ca="1">'mitten_rule-30'!N36</f>
@@ -9803,11 +9582,11 @@
       </c>
       <c r="N36" t="str">
         <f ca="1">'mitten_rule-30'!O36</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O36" t="str">
         <f ca="1">'mitten_rule-30'!P36</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P36" t="str">
         <f ca="1">'mitten_rule-30'!Q36</f>
@@ -9815,11 +9594,11 @@
       </c>
       <c r="Q36" t="str">
         <f ca="1">'mitten_rule-30'!R36</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R36" t="str">
         <f ca="1">'mitten_rule-30'!S36</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S36" t="str">
         <f ca="1">'mitten_rule-30'!T36</f>
@@ -9827,37 +9606,37 @@
       </c>
       <c r="T36" t="str">
         <f ca="1">'mitten_rule-30'!U36</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U36" t="str">
         <f ca="1">'mitten_rule-30'!V36</f>
         <v>C1</v>
       </c>
       <c r="V36" t="str">
+        <f>'mitten_rule-30'!W36</f>
+        <v>C2</v>
+      </c>
+      <c r="W36" t="str">
         <f>'mitten_rule-30'!X36</f>
         <v>C2</v>
       </c>
-      <c r="W36" t="str">
+      <c r="X36" t="str">
         <f>'mitten_rule-30'!Y36</f>
-        <v>C2</v>
-      </c>
-      <c r="X36" t="str">
-        <f>'mitten_rule-30'!Z36</f>
         <v>C2</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f ca="1">'mitten_rule-30'!B37</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="B37" t="str">
         <f ca="1">'mitten_rule-30'!C37</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C37" t="str">
         <f ca="1">'mitten_rule-30'!D37</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D37" t="str">
         <f ca="1">'mitten_rule-30'!E37</f>
@@ -9869,7 +9648,7 @@
       </c>
       <c r="F37" t="str">
         <f ca="1">'mitten_rule-30'!G37</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G37" t="str">
         <f ca="1">'mitten_rule-30'!H37</f>
@@ -9881,7 +9660,7 @@
       </c>
       <c r="I37" t="str">
         <f ca="1">'mitten_rule-30'!J37</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J37" t="str">
         <f ca="1">'mitten_rule-30'!K37</f>
@@ -9889,7 +9668,7 @@
       </c>
       <c r="K37" t="str">
         <f ca="1">'mitten_rule-30'!L37</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L37" t="str">
         <f ca="1">'mitten_rule-30'!M37</f>
@@ -9897,7 +9676,7 @@
       </c>
       <c r="M37" t="str">
         <f ca="1">'mitten_rule-30'!N37</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N37" t="str">
         <f ca="1">'mitten_rule-30'!O37</f>
@@ -9909,7 +9688,7 @@
       </c>
       <c r="P37" t="str">
         <f ca="1">'mitten_rule-30'!Q37</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q37" t="str">
         <f ca="1">'mitten_rule-30'!R37</f>
@@ -9921,37 +9700,37 @@
       </c>
       <c r="S37" t="str">
         <f ca="1">'mitten_rule-30'!T37</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T37" t="str">
         <f ca="1">'mitten_rule-30'!U37</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U37" t="str">
         <f ca="1">'mitten_rule-30'!V37</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V37" t="str">
+        <f>'mitten_rule-30'!W37</f>
+        <v>MC</v>
+      </c>
+      <c r="W37" t="str">
         <f>'mitten_rule-30'!X37</f>
-        <v>MC</v>
-      </c>
-      <c r="W37" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X37" t="str">
         <f>'mitten_rule-30'!Y37</f>
-        <v>C2</v>
-      </c>
-      <c r="X37" t="str">
-        <f>'mitten_rule-30'!Z37</f>
         <v>MC</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f ca="1">'mitten_rule-30'!B38</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="B38" t="str">
         <f ca="1">'mitten_rule-30'!C38</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C38" t="str">
         <f ca="1">'mitten_rule-30'!D38</f>
@@ -9967,7 +9746,7 @@
       </c>
       <c r="F38" t="str">
         <f ca="1">'mitten_rule-30'!G38</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G38" t="str">
         <f ca="1">'mitten_rule-30'!H38</f>
@@ -9979,23 +9758,23 @@
       </c>
       <c r="I38" t="str">
         <f ca="1">'mitten_rule-30'!J38</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J38" t="str">
         <f ca="1">'mitten_rule-30'!K38</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K38" t="str">
         <f ca="1">'mitten_rule-30'!L38</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L38" t="str">
         <f ca="1">'mitten_rule-30'!M38</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M38" t="str">
         <f ca="1">'mitten_rule-30'!N38</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N38" t="str">
         <f ca="1">'mitten_rule-30'!O38</f>
@@ -10007,7 +9786,7 @@
       </c>
       <c r="P38" t="str">
         <f ca="1">'mitten_rule-30'!Q38</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q38" t="str">
         <f ca="1">'mitten_rule-30'!R38</f>
@@ -10023,29 +9802,29 @@
       </c>
       <c r="T38" t="str">
         <f ca="1">'mitten_rule-30'!U38</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U38" t="str">
         <f ca="1">'mitten_rule-30'!V38</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V38" t="str">
+        <f>'mitten_rule-30'!W38</f>
+        <v>MC</v>
+      </c>
+      <c r="W38" t="str">
         <f>'mitten_rule-30'!X38</f>
-        <v>MC</v>
-      </c>
-      <c r="W38" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X38" t="str">
         <f>'mitten_rule-30'!Y38</f>
-        <v>C2</v>
-      </c>
-      <c r="X38" t="str">
-        <f>'mitten_rule-30'!Z38</f>
         <v>MC</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f ca="1">'mitten_rule-30'!B39</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="B39" t="str">
         <f ca="1">'mitten_rule-30'!C39</f>
@@ -10057,7 +9836,7 @@
       </c>
       <c r="D39" t="str">
         <f ca="1">'mitten_rule-30'!E39</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E39" t="str">
         <f ca="1">'mitten_rule-30'!F39</f>
@@ -10065,7 +9844,7 @@
       </c>
       <c r="F39" t="str">
         <f ca="1">'mitten_rule-30'!G39</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G39" t="str">
         <f ca="1">'mitten_rule-30'!H39</f>
@@ -10081,15 +9860,15 @@
       </c>
       <c r="J39" t="str">
         <f ca="1">'mitten_rule-30'!K39</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K39" t="str">
         <f ca="1">'mitten_rule-30'!L39</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L39" t="str">
         <f ca="1">'mitten_rule-30'!M39</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M39" t="str">
         <f ca="1">'mitten_rule-30'!N39</f>
@@ -10105,7 +9884,7 @@
       </c>
       <c r="P39" t="str">
         <f ca="1">'mitten_rule-30'!Q39</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q39" t="str">
         <f ca="1">'mitten_rule-30'!R39</f>
@@ -10113,7 +9892,7 @@
       </c>
       <c r="R39" t="str">
         <f ca="1">'mitten_rule-30'!S39</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S39" t="str">
         <f ca="1">'mitten_rule-30'!T39</f>
@@ -10125,18 +9904,18 @@
       </c>
       <c r="U39" t="str">
         <f ca="1">'mitten_rule-30'!V39</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V39" t="str">
+        <f>'mitten_rule-30'!W39</f>
+        <v>C2</v>
+      </c>
+      <c r="W39" t="str">
         <f>'mitten_rule-30'!X39</f>
         <v>C2</v>
       </c>
-      <c r="W39" t="str">
+      <c r="X39" t="str">
         <f>'mitten_rule-30'!Y39</f>
-        <v>C2</v>
-      </c>
-      <c r="X39" t="str">
-        <f>'mitten_rule-30'!Z39</f>
         <v>C2</v>
       </c>
     </row>
@@ -10155,15 +9934,15 @@
       </c>
       <c r="D40" t="str">
         <f ca="1">'mitten_rule-30'!E40</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E40" t="str">
         <f ca="1">'mitten_rule-30'!F40</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F40" t="str">
         <f ca="1">'mitten_rule-30'!G40</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G40" t="str">
         <f ca="1">'mitten_rule-30'!H40</f>
@@ -10171,7 +9950,7 @@
       </c>
       <c r="H40" t="str">
         <f ca="1">'mitten_rule-30'!I40</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I40" t="str">
         <f ca="1">'mitten_rule-30'!J40</f>
@@ -10183,7 +9962,7 @@
       </c>
       <c r="K40" t="str">
         <f ca="1">'mitten_rule-30'!L40</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L40" t="str">
         <f ca="1">'mitten_rule-30'!M40</f>
@@ -10195,7 +9974,7 @@
       </c>
       <c r="N40" t="str">
         <f ca="1">'mitten_rule-30'!O40</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O40" t="str">
         <f ca="1">'mitten_rule-30'!P40</f>
@@ -10203,15 +9982,15 @@
       </c>
       <c r="P40" t="str">
         <f ca="1">'mitten_rule-30'!Q40</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q40" t="str">
         <f ca="1">'mitten_rule-30'!R40</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R40" t="str">
         <f ca="1">'mitten_rule-30'!S40</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S40" t="str">
         <f ca="1">'mitten_rule-30'!T40</f>
@@ -10226,15 +10005,15 @@
         <v>C1</v>
       </c>
       <c r="V40" t="str">
+        <f>'mitten_rule-30'!W40</f>
+        <v>MC</v>
+      </c>
+      <c r="W40" t="str">
         <f>'mitten_rule-30'!X40</f>
-        <v>MC</v>
-      </c>
-      <c r="W40" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X40" t="str">
         <f>'mitten_rule-30'!Y40</f>
-        <v>C2</v>
-      </c>
-      <c r="X40" t="str">
-        <f>'mitten_rule-30'!Z40</f>
         <v>MC</v>
       </c>
     </row>
@@ -10245,7 +10024,7 @@
       </c>
       <c r="B41" t="str">
         <f ca="1">'mitten_rule-30'!C41</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C41" t="str">
         <f ca="1">'mitten_rule-30'!D41</f>
@@ -10257,7 +10036,7 @@
       </c>
       <c r="E41" t="str">
         <f ca="1">'mitten_rule-30'!F41</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F41" t="str">
         <f ca="1">'mitten_rule-30'!G41</f>
@@ -10265,11 +10044,11 @@
       </c>
       <c r="G41" t="str">
         <f ca="1">'mitten_rule-30'!H41</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="H41" t="str">
         <f ca="1">'mitten_rule-30'!I41</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I41" t="str">
         <f ca="1">'mitten_rule-30'!J41</f>
@@ -10281,7 +10060,7 @@
       </c>
       <c r="K41" t="str">
         <f ca="1">'mitten_rule-30'!L41</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L41" t="str">
         <f ca="1">'mitten_rule-30'!M41</f>
@@ -10293,11 +10072,11 @@
       </c>
       <c r="N41" t="str">
         <f ca="1">'mitten_rule-30'!O41</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O41" t="str">
         <f ca="1">'mitten_rule-30'!P41</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="P41" t="str">
         <f ca="1">'mitten_rule-30'!Q41</f>
@@ -10305,7 +10084,7 @@
       </c>
       <c r="Q41" t="str">
         <f ca="1">'mitten_rule-30'!R41</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R41" t="str">
         <f ca="1">'mitten_rule-30'!S41</f>
@@ -10317,33 +10096,33 @@
       </c>
       <c r="T41" t="str">
         <f ca="1">'mitten_rule-30'!U41</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U41" t="str">
         <f ca="1">'mitten_rule-30'!V41</f>
         <v>MC</v>
       </c>
       <c r="V41" t="str">
+        <f>'mitten_rule-30'!W41</f>
+        <v>MC</v>
+      </c>
+      <c r="W41" t="str">
         <f>'mitten_rule-30'!X41</f>
-        <v>MC</v>
-      </c>
-      <c r="W41" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X41" t="str">
         <f>'mitten_rule-30'!Y41</f>
-        <v>C2</v>
-      </c>
-      <c r="X41" t="str">
-        <f>'mitten_rule-30'!Z41</f>
         <v>MC</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f ca="1">'mitten_rule-30'!B42</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="B42" t="str">
         <f ca="1">'mitten_rule-30'!C42</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C42" t="str">
         <f ca="1">'mitten_rule-30'!D42</f>
@@ -10355,11 +10134,11 @@
       </c>
       <c r="E42" t="str">
         <f ca="1">'mitten_rule-30'!F42</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F42" t="str">
         <f ca="1">'mitten_rule-30'!G42</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G42" t="str">
         <f ca="1">'mitten_rule-30'!H42</f>
@@ -10379,7 +10158,7 @@
       </c>
       <c r="K42" t="str">
         <f ca="1">'mitten_rule-30'!L42</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L42" t="str">
         <f ca="1">'mitten_rule-30'!M42</f>
@@ -10399,11 +10178,11 @@
       </c>
       <c r="P42" t="str">
         <f ca="1">'mitten_rule-30'!Q42</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q42" t="str">
         <f ca="1">'mitten_rule-30'!R42</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R42" t="str">
         <f ca="1">'mitten_rule-30'!S42</f>
@@ -10415,29 +10194,29 @@
       </c>
       <c r="T42" t="str">
         <f ca="1">'mitten_rule-30'!U42</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U42" t="str">
         <f ca="1">'mitten_rule-30'!V42</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V42" t="str">
+        <f>'mitten_rule-30'!W42</f>
+        <v>C2</v>
+      </c>
+      <c r="W42" t="str">
         <f>'mitten_rule-30'!X42</f>
         <v>C2</v>
       </c>
-      <c r="W42" t="str">
+      <c r="X42" t="str">
         <f>'mitten_rule-30'!Y42</f>
-        <v>C2</v>
-      </c>
-      <c r="X42" t="str">
-        <f>'mitten_rule-30'!Z42</f>
         <v>C2</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f ca="1">'mitten_rule-30'!B43</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="B43" t="str">
         <f ca="1">'mitten_rule-30'!C43</f>
@@ -10465,11 +10244,11 @@
       </c>
       <c r="H43" t="str">
         <f ca="1">'mitten_rule-30'!I43</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I43" t="str">
         <f ca="1">'mitten_rule-30'!J43</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="J43" t="str">
         <f ca="1">'mitten_rule-30'!K43</f>
@@ -10477,7 +10256,7 @@
       </c>
       <c r="K43" t="str">
         <f ca="1">'mitten_rule-30'!L43</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L43" t="str">
         <f ca="1">'mitten_rule-30'!M43</f>
@@ -10485,11 +10264,11 @@
       </c>
       <c r="M43" t="str">
         <f ca="1">'mitten_rule-30'!N43</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="N43" t="str">
         <f ca="1">'mitten_rule-30'!O43</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O43" t="str">
         <f ca="1">'mitten_rule-30'!P43</f>
@@ -10517,18 +10296,18 @@
       </c>
       <c r="U43" t="str">
         <f ca="1">'mitten_rule-30'!V43</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V43" t="str">
+        <f>'mitten_rule-30'!W43</f>
+        <v>MC</v>
+      </c>
+      <c r="W43" t="str">
         <f>'mitten_rule-30'!X43</f>
-        <v>MC</v>
-      </c>
-      <c r="W43" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X43" t="str">
         <f>'mitten_rule-30'!Y43</f>
-        <v>C2</v>
-      </c>
-      <c r="X43" t="str">
-        <f>'mitten_rule-30'!Z43</f>
         <v>MC</v>
       </c>
     </row>
@@ -10543,19 +10322,19 @@
       </c>
       <c r="C44" t="str">
         <f ca="1">'mitten_rule-30'!D44</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="D44" t="str">
         <f ca="1">'mitten_rule-30'!E44</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E44" t="str">
         <f ca="1">'mitten_rule-30'!F44</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F44" t="str">
         <f ca="1">'mitten_rule-30'!G44</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G44" t="str">
         <f ca="1">'mitten_rule-30'!H44</f>
@@ -10571,15 +10350,15 @@
       </c>
       <c r="J44" t="str">
         <f ca="1">'mitten_rule-30'!K44</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="K44" t="str">
         <f ca="1">'mitten_rule-30'!L44</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L44" t="str">
         <f ca="1">'mitten_rule-30'!M44</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="M44" t="str">
         <f ca="1">'mitten_rule-30'!N44</f>
@@ -10595,19 +10374,19 @@
       </c>
       <c r="P44" t="str">
         <f ca="1">'mitten_rule-30'!Q44</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q44" t="str">
         <f ca="1">'mitten_rule-30'!R44</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R44" t="str">
         <f ca="1">'mitten_rule-30'!S44</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S44" t="str">
         <f ca="1">'mitten_rule-30'!T44</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="T44" t="str">
         <f ca="1">'mitten_rule-30'!U44</f>
@@ -10618,15 +10397,15 @@
         <v>C1</v>
       </c>
       <c r="V44" t="str">
+        <f>'mitten_rule-30'!W44</f>
+        <v>MC</v>
+      </c>
+      <c r="W44" t="str">
         <f>'mitten_rule-30'!X44</f>
-        <v>MC</v>
-      </c>
-      <c r="W44" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X44" t="str">
         <f>'mitten_rule-30'!Y44</f>
-        <v>C2</v>
-      </c>
-      <c r="X44" t="str">
-        <f>'mitten_rule-30'!Z44</f>
         <v>MC</v>
       </c>
     </row>
@@ -10645,11 +10424,11 @@
       </c>
       <c r="D45" t="str">
         <f ca="1">'mitten_rule-30'!E45</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E45" t="str">
         <f ca="1">'mitten_rule-30'!F45</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F45" t="str">
         <f ca="1">'mitten_rule-30'!G45</f>
@@ -10661,7 +10440,7 @@
       </c>
       <c r="H45" t="str">
         <f ca="1">'mitten_rule-30'!I45</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I45" t="str">
         <f ca="1">'mitten_rule-30'!J45</f>
@@ -10673,7 +10452,7 @@
       </c>
       <c r="K45" t="str">
         <f ca="1">'mitten_rule-30'!L45</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L45" t="str">
         <f ca="1">'mitten_rule-30'!M45</f>
@@ -10685,7 +10464,7 @@
       </c>
       <c r="N45" t="str">
         <f ca="1">'mitten_rule-30'!O45</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O45" t="str">
         <f ca="1">'mitten_rule-30'!P45</f>
@@ -10697,11 +10476,11 @@
       </c>
       <c r="Q45" t="str">
         <f ca="1">'mitten_rule-30'!R45</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R45" t="str">
         <f ca="1">'mitten_rule-30'!S45</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S45" t="str">
         <f ca="1">'mitten_rule-30'!T45</f>
@@ -10716,15 +10495,15 @@
         <v>MC</v>
       </c>
       <c r="V45" t="str">
+        <f>'mitten_rule-30'!W45</f>
+        <v>C2</v>
+      </c>
+      <c r="W45" t="str">
         <f>'mitten_rule-30'!X45</f>
         <v>C2</v>
       </c>
-      <c r="W45" t="str">
+      <c r="X45" t="str">
         <f>'mitten_rule-30'!Y45</f>
-        <v>C2</v>
-      </c>
-      <c r="X45" t="str">
-        <f>'mitten_rule-30'!Z45</f>
         <v>C2</v>
       </c>
     </row>
@@ -10735,7 +10514,7 @@
       </c>
       <c r="B46" t="str">
         <f ca="1">'mitten_rule-30'!C46</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C46" t="str">
         <f ca="1">'mitten_rule-30'!D46</f>
@@ -10759,7 +10538,7 @@
       </c>
       <c r="H46" t="str">
         <f ca="1">'mitten_rule-30'!I46</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I46" t="str">
         <f ca="1">'mitten_rule-30'!J46</f>
@@ -10771,7 +10550,7 @@
       </c>
       <c r="K46" t="str">
         <f ca="1">'mitten_rule-30'!L46</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L46" t="str">
         <f ca="1">'mitten_rule-30'!M46</f>
@@ -10783,7 +10562,7 @@
       </c>
       <c r="N46" t="str">
         <f ca="1">'mitten_rule-30'!O46</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O46" t="str">
         <f ca="1">'mitten_rule-30'!P46</f>
@@ -10807,33 +10586,33 @@
       </c>
       <c r="T46" t="str">
         <f ca="1">'mitten_rule-30'!U46</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U46" t="str">
         <f ca="1">'mitten_rule-30'!V46</f>
         <v>C1</v>
       </c>
       <c r="V46" t="str">
+        <f>'mitten_rule-30'!W46</f>
+        <v>MC</v>
+      </c>
+      <c r="W46" t="str">
         <f>'mitten_rule-30'!X46</f>
-        <v>MC</v>
-      </c>
-      <c r="W46" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X46" t="str">
         <f>'mitten_rule-30'!Y46</f>
-        <v>C2</v>
-      </c>
-      <c r="X46" t="str">
-        <f>'mitten_rule-30'!Z46</f>
         <v>MC</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f ca="1">'mitten_rule-30'!B47</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="B47" t="str">
         <f ca="1">'mitten_rule-30'!C47</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C47" t="str">
         <f ca="1">'mitten_rule-30'!D47</f>
@@ -10841,15 +10620,15 @@
       </c>
       <c r="D47" t="str">
         <f ca="1">'mitten_rule-30'!E47</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="E47" t="str">
         <f ca="1">'mitten_rule-30'!F47</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="F47" t="str">
         <f ca="1">'mitten_rule-30'!G47</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="G47" t="str">
         <f ca="1">'mitten_rule-30'!H47</f>
@@ -10857,7 +10636,7 @@
       </c>
       <c r="H47" t="str">
         <f ca="1">'mitten_rule-30'!I47</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I47" t="str">
         <f ca="1">'mitten_rule-30'!J47</f>
@@ -10869,7 +10648,7 @@
       </c>
       <c r="K47" t="str">
         <f ca="1">'mitten_rule-30'!L47</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="L47" t="str">
         <f ca="1">'mitten_rule-30'!M47</f>
@@ -10881,7 +10660,7 @@
       </c>
       <c r="N47" t="str">
         <f ca="1">'mitten_rule-30'!O47</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="O47" t="str">
         <f ca="1">'mitten_rule-30'!P47</f>
@@ -10889,15 +10668,15 @@
       </c>
       <c r="P47" t="str">
         <f ca="1">'mitten_rule-30'!Q47</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="Q47" t="str">
         <f ca="1">'mitten_rule-30'!R47</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R47" t="str">
         <f ca="1">'mitten_rule-30'!S47</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="S47" t="str">
         <f ca="1">'mitten_rule-30'!T47</f>
@@ -10905,22 +10684,22 @@
       </c>
       <c r="T47" t="str">
         <f ca="1">'mitten_rule-30'!U47</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="U47" t="str">
         <f ca="1">'mitten_rule-30'!V47</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="V47" t="str">
+        <f>'mitten_rule-30'!W47</f>
+        <v>MC</v>
+      </c>
+      <c r="W47" t="str">
         <f>'mitten_rule-30'!X47</f>
-        <v>MC</v>
-      </c>
-      <c r="W47" t="str">
+        <v>C2</v>
+      </c>
+      <c r="X47" t="str">
         <f>'mitten_rule-30'!Y47</f>
-        <v>C2</v>
-      </c>
-      <c r="X47" t="str">
-        <f>'mitten_rule-30'!Z47</f>
         <v>MC</v>
       </c>
     </row>
@@ -11010,15 +10789,15 @@
         <v>C2</v>
       </c>
       <c r="V48" t="str">
+        <f>'mitten_rule-30'!W48</f>
+        <v>C2</v>
+      </c>
+      <c r="W48" t="str">
         <f>'mitten_rule-30'!X48</f>
         <v>C2</v>
       </c>
-      <c r="W48" t="str">
+      <c r="X48" t="str">
         <f>'mitten_rule-30'!Y48</f>
-        <v>C2</v>
-      </c>
-      <c r="X48" t="str">
-        <f>'mitten_rule-30'!Z48</f>
         <v>C2</v>
       </c>
     </row>
@@ -11108,15 +10887,15 @@
         <v>C1</v>
       </c>
       <c r="V49" t="str">
+        <f>'mitten_rule-30'!W49</f>
+        <v>C1</v>
+      </c>
+      <c r="W49" t="str">
         <f>'mitten_rule-30'!X49</f>
         <v>C1</v>
       </c>
-      <c r="W49" t="str">
+      <c r="X49" t="str">
         <f>'mitten_rule-30'!Y49</f>
-        <v>C1</v>
-      </c>
-      <c r="X49" t="str">
-        <f>'mitten_rule-30'!Z49</f>
         <v>C1</v>
       </c>
     </row>
@@ -11206,15 +10985,15 @@
         <v>C2</v>
       </c>
       <c r="V50" t="str">
+        <f>'mitten_rule-30'!W50</f>
+        <v>C2</v>
+      </c>
+      <c r="W50" t="str">
         <f>'mitten_rule-30'!X50</f>
         <v>C2</v>
       </c>
-      <c r="W50" t="str">
+      <c r="X50" t="str">
         <f>'mitten_rule-30'!Y50</f>
-        <v>C2</v>
-      </c>
-      <c r="X50" t="str">
-        <f>'mitten_rule-30'!Z50</f>
         <v>C2</v>
       </c>
     </row>
@@ -11304,15 +11083,15 @@
         <v>C1</v>
       </c>
       <c r="V51" t="str">
+        <f>'mitten_rule-30'!W51</f>
+        <v>Blank</v>
+      </c>
+      <c r="W51" t="str">
         <f>'mitten_rule-30'!X51</f>
         <v>Blank</v>
       </c>
-      <c r="W51" t="str">
+      <c r="X51" t="str">
         <f>'mitten_rule-30'!Y51</f>
-        <v>Blank</v>
-      </c>
-      <c r="X51" t="str">
-        <f>'mitten_rule-30'!Z51</f>
         <v>Blank</v>
       </c>
     </row>
@@ -11323,7 +11102,7 @@
       </c>
       <c r="B52" t="str">
         <f>'mitten_rule-30'!C52</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="C52" t="str">
         <f>'mitten_rule-30'!D52</f>
@@ -11335,7 +11114,7 @@
       </c>
       <c r="E52" t="str">
         <f>'mitten_rule-30'!F52</f>
-        <v>MC</v>
+        <v>C1</v>
       </c>
       <c r="F52" t="str">
         <f>'mitten_rule-30'!G52</f>
@@ -11347,7 +11126,7 @@
       </c>
       <c r="H52" t="str">
         <f>'mitten_rule-30'!I52</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="I52" t="str">
         <f>'mitten_rule-30'!J52</f>
@@ -11371,7 +11150,7 @@
       </c>
       <c r="N52" t="str">
         <f>'mitten_rule-30'!O52</f>
-        <v>MC</v>
+        <v>C1</v>
       </c>
       <c r="O52" t="str">
         <f>'mitten_rule-30'!P52</f>
@@ -11383,7 +11162,7 @@
       </c>
       <c r="Q52" t="str">
         <f>'mitten_rule-30'!R52</f>
-        <v>C1</v>
+        <v>MC</v>
       </c>
       <c r="R52" t="str">
         <f>'mitten_rule-30'!S52</f>
@@ -11402,15 +11181,15 @@
         <v>C2</v>
       </c>
       <c r="V52" t="str">
+        <f>'mitten_rule-30'!W52</f>
+        <v>C2</v>
+      </c>
+      <c r="W52" t="str">
         <f>'mitten_rule-30'!X52</f>
-        <v>C2</v>
-      </c>
-      <c r="W52" t="str">
+        <v>MC</v>
+      </c>
+      <c r="X52" t="str">
         <f>'mitten_rule-30'!Y52</f>
-        <v>C1</v>
-      </c>
-      <c r="X52" t="str">
-        <f>'mitten_rule-30'!Z52</f>
         <v>C2</v>
       </c>
     </row>
@@ -11500,15 +11279,15 @@
         <v>Blank</v>
       </c>
       <c r="V53" t="str">
+        <f>'mitten_rule-30'!W53</f>
+        <v>Blank</v>
+      </c>
+      <c r="W53" t="str">
         <f>'mitten_rule-30'!X53</f>
         <v>Blank</v>
       </c>
-      <c r="W53" t="str">
+      <c r="X53" t="str">
         <f>'mitten_rule-30'!Y53</f>
-        <v>Blank</v>
-      </c>
-      <c r="X53" t="str">
-        <f>'mitten_rule-30'!Z53</f>
         <v>Blank</v>
       </c>
     </row>
@@ -11598,15 +11377,15 @@
         <v>C1</v>
       </c>
       <c r="V54" t="str">
+        <f>'mitten_rule-30'!W54</f>
+        <v>C1</v>
+      </c>
+      <c r="W54" t="str">
         <f>'mitten_rule-30'!X54</f>
         <v>C1</v>
       </c>
-      <c r="W54" t="str">
+      <c r="X54" t="str">
         <f>'mitten_rule-30'!Y54</f>
-        <v>C1</v>
-      </c>
-      <c r="X54" t="str">
-        <f>'mitten_rule-30'!Z54</f>
         <v>C1</v>
       </c>
     </row>
